--- a/Feb'2021/13.02.2021/Bank Statement.xlsx
+++ b/Feb'2021/13.02.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -2441,6 +2441,45 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2498,18 +2537,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2520,6 +2547,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2602,90 +2686,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2693,11 +2693,11 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2705,13 +2705,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3105,67 +3098,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="26.25">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
-      <c r="N1" s="240"/>
-      <c r="O1" s="240"/>
-      <c r="P1" s="240"/>
-      <c r="Q1" s="240"/>
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
+      <c r="N1" s="253"/>
+      <c r="O1" s="253"/>
+      <c r="P1" s="253"/>
+      <c r="Q1" s="253"/>
     </row>
     <row r="2" spans="1:24" ht="18">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="254" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
-      <c r="J2" s="241"/>
-      <c r="K2" s="241"/>
-      <c r="L2" s="241"/>
-      <c r="M2" s="241"/>
-      <c r="N2" s="241"/>
-      <c r="O2" s="241"/>
-      <c r="P2" s="241"/>
-      <c r="Q2" s="241"/>
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
+      <c r="M2" s="254"/>
+      <c r="N2" s="254"/>
+      <c r="O2" s="254"/>
+      <c r="P2" s="254"/>
+      <c r="Q2" s="254"/>
     </row>
     <row r="3" spans="1:24" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="248" t="s">
+      <c r="A3" s="261" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="249"/>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
-      <c r="O3" s="249"/>
-      <c r="P3" s="249"/>
-      <c r="Q3" s="250"/>
+      <c r="B3" s="262"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="262"/>
+      <c r="G3" s="262"/>
+      <c r="H3" s="262"/>
+      <c r="I3" s="262"/>
+      <c r="J3" s="262"/>
+      <c r="K3" s="262"/>
+      <c r="L3" s="262"/>
+      <c r="M3" s="262"/>
+      <c r="N3" s="262"/>
+      <c r="O3" s="262"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="263"/>
       <c r="S3" s="98"/>
       <c r="T3" s="99"/>
       <c r="U3" s="99"/>
@@ -3174,52 +3167,52 @@
       <c r="X3" s="100"/>
     </row>
     <row r="4" spans="1:24" s="100" customFormat="1">
-      <c r="A4" s="242" t="s">
+      <c r="A4" s="255" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="244" t="s">
+      <c r="B4" s="257" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="257" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="238" t="s">
+      <c r="D4" s="251" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="238" t="s">
+      <c r="E4" s="251" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="238" t="s">
+      <c r="F4" s="251" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="238" t="s">
+      <c r="G4" s="251" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="238" t="s">
+      <c r="H4" s="251" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="238" t="s">
+      <c r="I4" s="251" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="238" t="s">
+      <c r="J4" s="251" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="251" t="s">
+      <c r="K4" s="264" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="253" t="s">
+      <c r="L4" s="266" t="s">
         <v>143</v>
       </c>
-      <c r="M4" s="255" t="s">
+      <c r="M4" s="268" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="257" t="s">
+      <c r="N4" s="247" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="259" t="s">
+      <c r="O4" s="249" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="246" t="s">
+      <c r="P4" s="259" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="203" t="s">
@@ -3232,22 +3225,22 @@
       <c r="W4" s="99"/>
     </row>
     <row r="5" spans="1:24" s="100" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="243"/>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="252"/>
-      <c r="L5" s="254"/>
-      <c r="M5" s="256"/>
-      <c r="N5" s="258"/>
-      <c r="O5" s="260"/>
-      <c r="P5" s="247"/>
+      <c r="A5" s="256"/>
+      <c r="B5" s="258"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="252"/>
+      <c r="K5" s="265"/>
+      <c r="L5" s="267"/>
+      <c r="M5" s="269"/>
+      <c r="N5" s="248"/>
+      <c r="O5" s="250"/>
+      <c r="P5" s="260"/>
       <c r="Q5" s="204" t="s">
         <v>36</v>
       </c>
@@ -6113,12 +6106,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A4:A5"/>
@@ -6132,6 +6119,12 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6158,12 +6151,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="270" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="263"/>
+      <c r="B1" s="271"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="272"/>
       <c r="F1" s="9"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -6178,12 +6171,12 @@
       <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="18">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="264"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -6578,7 +6571,7 @@
       <c r="A16" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="319">
+      <c r="B16" s="246">
         <v>0</v>
       </c>
       <c r="C16" s="228">
@@ -8134,8 +8127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8146,305 +8139,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="296" t="s">
+      <c r="A1" s="274" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="298"/>
+      <c r="B1" s="275"/>
+      <c r="C1" s="276"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="299"/>
-      <c r="B2" s="292"/>
-      <c r="C2" s="300"/>
+      <c r="A2" s="277"/>
+      <c r="B2" s="278"/>
+      <c r="C2" s="279"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="301" t="s">
+      <c r="A3" s="280" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="293"/>
-      <c r="C3" s="302"/>
+      <c r="B3" s="281"/>
+      <c r="C3" s="282"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="303"/>
-      <c r="B4" s="294"/>
-      <c r="C4" s="304"/>
+      <c r="A4" s="283"/>
+      <c r="B4" s="284"/>
+      <c r="C4" s="285"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
-      <c r="A5" s="305" t="s">
+      <c r="A5" s="239" t="s">
         <v>139</v>
       </c>
       <c r="B5" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="306" t="s">
+      <c r="C5" s="240" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75">
-      <c r="A6" s="307" t="s">
+      <c r="A6" s="241" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="198">
         <v>17924</v>
       </c>
-      <c r="C6" s="308" t="s">
+      <c r="C6" s="242" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75">
-      <c r="A7" s="307" t="s">
+      <c r="A7" s="241" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="198">
         <v>12696</v>
       </c>
-      <c r="C7" s="308" t="s">
+      <c r="C7" s="242" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75">
-      <c r="A8" s="307" t="s">
+      <c r="A8" s="241" t="s">
         <v>153</v>
       </c>
       <c r="B8" s="198">
         <v>500</v>
       </c>
-      <c r="C8" s="308" t="s">
+      <c r="C8" s="242" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75">
-      <c r="A9" s="307" t="s">
+      <c r="A9" s="241" t="s">
         <v>112</v>
       </c>
       <c r="B9" s="198"/>
-      <c r="C9" s="308" t="s">
+      <c r="C9" s="242" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75">
-      <c r="A10" s="307" t="s">
+      <c r="A10" s="241" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="198">
         <v>8111</v>
       </c>
-      <c r="C10" s="308" t="s">
+      <c r="C10" s="242" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75">
-      <c r="A11" s="307" t="s">
+      <c r="A11" s="241" t="s">
         <v>173</v>
       </c>
       <c r="B11" s="198">
         <v>900</v>
       </c>
-      <c r="C11" s="308" t="s">
+      <c r="C11" s="242" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75">
-      <c r="A12" s="307" t="s">
+      <c r="A12" s="241" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="198">
         <v>718</v>
       </c>
-      <c r="C12" s="308" t="s">
+      <c r="C12" s="242" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75">
-      <c r="A13" s="307" t="s">
+      <c r="A13" s="241" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="198">
         <v>862</v>
       </c>
-      <c r="C13" s="308" t="s">
+      <c r="C13" s="242" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75">
-      <c r="A14" s="307" t="s">
+      <c r="A14" s="241" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="198">
         <v>2617</v>
       </c>
-      <c r="C14" s="308" t="s">
+      <c r="C14" s="242" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75">
-      <c r="A15" s="307" t="s">
+      <c r="A15" s="241" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="198">
         <v>3398</v>
       </c>
-      <c r="C15" s="308" t="s">
+      <c r="C15" s="242" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75">
-      <c r="A16" s="307" t="s">
+      <c r="A16" s="241" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="198">
         <v>50</v>
       </c>
-      <c r="C16" s="308" t="s">
+      <c r="C16" s="242" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="307" t="s">
+      <c r="A17" s="241" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="198">
         <v>445</v>
       </c>
-      <c r="C17" s="308" t="s">
+      <c r="C17" s="242" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="314" t="s">
+      <c r="E17" s="289" t="s">
         <v>169</v>
       </c>
-      <c r="F17" s="315"/>
-      <c r="G17" s="318"/>
-      <c r="H17" s="318"/>
-      <c r="I17" s="318"/>
-      <c r="J17" s="318"/>
-      <c r="K17" s="318"/>
+      <c r="F17" s="290"/>
+      <c r="G17" s="288"/>
+      <c r="H17" s="288"/>
+      <c r="I17" s="288"/>
+      <c r="J17" s="288"/>
+      <c r="K17" s="288"/>
     </row>
     <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="307" t="s">
+      <c r="A18" s="241" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="198">
         <v>855</v>
       </c>
-      <c r="C18" s="308" t="s">
+      <c r="C18" s="242" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="316"/>
-      <c r="F18" s="317"/>
-      <c r="G18" s="318"/>
-      <c r="H18" s="318"/>
-      <c r="I18" s="318"/>
-      <c r="J18" s="318"/>
-      <c r="K18" s="318"/>
+      <c r="E18" s="291"/>
+      <c r="F18" s="292"/>
+      <c r="G18" s="288"/>
+      <c r="H18" s="288"/>
+      <c r="I18" s="288"/>
+      <c r="J18" s="288"/>
+      <c r="K18" s="288"/>
     </row>
     <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="307" t="s">
+      <c r="A19" s="241" t="s">
         <v>146</v>
       </c>
       <c r="B19" s="198">
         <v>250</v>
       </c>
-      <c r="C19" s="308" t="s">
+      <c r="C19" s="242" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="307" t="s">
+      <c r="A20" s="241" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="198">
         <v>200</v>
       </c>
-      <c r="C20" s="308" t="s">
+      <c r="C20" s="242" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="307" t="s">
+      <c r="A21" s="241" t="s">
         <v>140</v>
       </c>
       <c r="B21" s="198">
         <v>5750</v>
       </c>
-      <c r="C21" s="308" t="s">
+      <c r="C21" s="242" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
-      <c r="A22" s="307" t="s">
+      <c r="A22" s="241" t="s">
         <v>157</v>
       </c>
       <c r="B22" s="198">
         <v>3700</v>
       </c>
-      <c r="C22" s="308" t="s">
+      <c r="C22" s="242" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="307" t="s">
+      <c r="A23" s="241" t="s">
         <v>141</v>
       </c>
       <c r="B23" s="198">
         <v>1100</v>
       </c>
-      <c r="C23" s="308" t="s">
+      <c r="C23" s="242" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="307" t="s">
+      <c r="A24" s="241" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="198">
         <v>869</v>
       </c>
-      <c r="C24" s="308" t="s">
+      <c r="C24" s="242" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75">
-      <c r="A25" s="307" t="s">
+      <c r="A25" s="241" t="s">
         <v>51</v>
       </c>
       <c r="B25" s="198">
         <v>775</v>
       </c>
-      <c r="C25" s="308" t="s">
+      <c r="C25" s="242" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75">
-      <c r="A26" s="307" t="s">
+      <c r="A26" s="241" t="s">
         <v>155</v>
       </c>
       <c r="B26" s="198">
         <v>5000</v>
       </c>
-      <c r="C26" s="308" t="s">
+      <c r="C26" s="242" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A27" s="309" t="s">
+      <c r="A27" s="243" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="310">
+      <c r="B27" s="244">
         <v>518</v>
       </c>
-      <c r="C27" s="311" t="s">
+      <c r="C27" s="245" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="23.25">
-      <c r="A28" s="295" t="s">
+      <c r="A28" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="312">
+      <c r="B28" s="286">
         <f>SUM(B6:B27)</f>
         <v>67238</v>
       </c>
-      <c r="C28" s="313"/>
+      <c r="C28" s="287"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8468,7 +8461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
@@ -8490,25 +8483,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="296" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="270"/>
+      <c r="B1" s="297"/>
+      <c r="C1" s="297"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="298"/>
       <c r="G1" s="22"/>
       <c r="H1" s="137"/>
       <c r="I1" s="137"/>
     </row>
     <row r="2" spans="1:12" ht="21.75">
-      <c r="A2" s="271" t="s">
+      <c r="A2" s="299" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="273"/>
+      <c r="B2" s="300"/>
+      <c r="C2" s="300"/>
+      <c r="D2" s="300"/>
+      <c r="E2" s="301"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A3" s="34" t="s">
@@ -8533,11 +8526,11 @@
       <c r="D4" s="19"/>
       <c r="E4" s="83"/>
       <c r="F4" s="29"/>
-      <c r="J4" s="274" t="s">
+      <c r="J4" s="302" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="275"/>
-      <c r="L4" s="276"/>
+      <c r="K4" s="303"/>
+      <c r="L4" s="304"/>
     </row>
     <row r="5" spans="1:12" ht="22.5">
       <c r="A5" s="84" t="s">
@@ -8810,11 +8803,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="23.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A17" s="265"/>
-      <c r="B17" s="266"/>
-      <c r="C17" s="266"/>
-      <c r="D17" s="266"/>
-      <c r="E17" s="267"/>
+      <c r="A17" s="293"/>
+      <c r="B17" s="294"/>
+      <c r="C17" s="294"/>
+      <c r="D17" s="294"/>
+      <c r="E17" s="295"/>
       <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:9">
@@ -8953,108 +8946,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" customHeight="1">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="308" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
-      <c r="K1" s="280"/>
-      <c r="L1" s="280"/>
-      <c r="M1" s="280"/>
-      <c r="N1" s="280"/>
-      <c r="O1" s="280"/>
-      <c r="P1" s="280"/>
-      <c r="Q1" s="280"/>
+      <c r="B1" s="308"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
+      <c r="J1" s="308"/>
+      <c r="K1" s="308"/>
+      <c r="L1" s="308"/>
+      <c r="M1" s="308"/>
+      <c r="N1" s="308"/>
+      <c r="O1" s="308"/>
+      <c r="P1" s="308"/>
+      <c r="Q1" s="308"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="280"/>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="280"/>
-      <c r="E2" s="280"/>
-      <c r="F2" s="280"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="280"/>
-      <c r="I2" s="280"/>
-      <c r="J2" s="280"/>
-      <c r="K2" s="280"/>
-      <c r="L2" s="280"/>
-      <c r="M2" s="280"/>
-      <c r="N2" s="280"/>
-      <c r="O2" s="280"/>
-      <c r="P2" s="280"/>
-      <c r="Q2" s="280"/>
+      <c r="A2" s="308"/>
+      <c r="B2" s="308"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="308"/>
+      <c r="H2" s="308"/>
+      <c r="I2" s="308"/>
+      <c r="J2" s="308"/>
+      <c r="K2" s="308"/>
+      <c r="L2" s="308"/>
+      <c r="M2" s="308"/>
+      <c r="N2" s="308"/>
+      <c r="O2" s="308"/>
+      <c r="P2" s="308"/>
+      <c r="Q2" s="308"/>
     </row>
     <row r="3" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="281" t="s">
+      <c r="A3" s="309" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="281"/>
-      <c r="C3" s="281"/>
-      <c r="D3" s="281"/>
-      <c r="E3" s="281"/>
-      <c r="F3" s="281"/>
-      <c r="G3" s="281"/>
-      <c r="H3" s="281"/>
-      <c r="I3" s="281"/>
-      <c r="J3" s="281"/>
-      <c r="K3" s="281"/>
-      <c r="L3" s="281"/>
-      <c r="M3" s="281"/>
-      <c r="N3" s="281"/>
-      <c r="O3" s="281"/>
-      <c r="P3" s="281"/>
-      <c r="Q3" s="281"/>
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="309"/>
+      <c r="E3" s="309"/>
+      <c r="F3" s="309"/>
+      <c r="G3" s="309"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="309"/>
+      <c r="J3" s="309"/>
+      <c r="K3" s="309"/>
+      <c r="L3" s="309"/>
+      <c r="M3" s="309"/>
+      <c r="N3" s="309"/>
+      <c r="O3" s="309"/>
+      <c r="P3" s="309"/>
+      <c r="Q3" s="309"/>
     </row>
     <row r="4" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="282" t="s">
+      <c r="A4" s="310" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="282"/>
-      <c r="C4" s="282"/>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="282"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="282"/>
-      <c r="L4" s="282"/>
-      <c r="M4" s="282"/>
-      <c r="N4" s="282"/>
-      <c r="O4" s="282"/>
-      <c r="P4" s="282"/>
-      <c r="Q4" s="282"/>
+      <c r="B4" s="310"/>
+      <c r="C4" s="310"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="310"/>
+      <c r="J4" s="310"/>
+      <c r="K4" s="310"/>
+      <c r="L4" s="310"/>
+      <c r="M4" s="310"/>
+      <c r="N4" s="310"/>
+      <c r="O4" s="310"/>
+      <c r="P4" s="310"/>
+      <c r="Q4" s="310"/>
     </row>
     <row r="5" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="283" t="s">
+      <c r="A5" s="311" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="284"/>
-      <c r="C5" s="283" t="s">
+      <c r="B5" s="312"/>
+      <c r="C5" s="311" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="285"/>
-      <c r="H5" s="285"/>
-      <c r="I5" s="285"/>
-      <c r="J5" s="285"/>
-      <c r="K5" s="285"/>
-      <c r="L5" s="285"/>
-      <c r="M5" s="285"/>
-      <c r="N5" s="285"/>
-      <c r="O5" s="285"/>
-      <c r="P5" s="284"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="313"/>
+      <c r="I5" s="313"/>
+      <c r="J5" s="313"/>
+      <c r="K5" s="313"/>
+      <c r="L5" s="313"/>
+      <c r="M5" s="313"/>
+      <c r="N5" s="313"/>
+      <c r="O5" s="313"/>
+      <c r="P5" s="312"/>
       <c r="Q5" s="140"/>
     </row>
     <row r="6" spans="1:20" s="120" customFormat="1" ht="18" customHeight="1">
@@ -9637,11 +9630,11 @@
       <c r="Q27" s="183"/>
     </row>
     <row r="28" spans="1:17" s="129" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="277" t="s">
+      <c r="A28" s="305" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="278"/>
-      <c r="C28" s="279"/>
+      <c r="B28" s="306"/>
+      <c r="C28" s="307"/>
       <c r="D28" s="148">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -10374,12 +10367,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15" customHeight="1">
-      <c r="B1" s="286" t="s">
+      <c r="B1" s="314" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="288"/>
+      <c r="C1" s="315"/>
+      <c r="D1" s="315"/>
+      <c r="E1" s="316"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1">
       <c r="B2" s="150" t="s">
@@ -10733,7 +10726,7 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E24">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10774,111 +10767,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" customHeight="1">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="308" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
-      <c r="K1" s="280"/>
-      <c r="L1" s="280"/>
-      <c r="M1" s="280"/>
-      <c r="N1" s="280"/>
-      <c r="O1" s="280"/>
-      <c r="P1" s="280"/>
-      <c r="Q1" s="280"/>
+      <c r="B1" s="308"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
+      <c r="J1" s="308"/>
+      <c r="K1" s="308"/>
+      <c r="L1" s="308"/>
+      <c r="M1" s="308"/>
+      <c r="N1" s="308"/>
+      <c r="O1" s="308"/>
+      <c r="P1" s="308"/>
+      <c r="Q1" s="308"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="280"/>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="280"/>
-      <c r="E2" s="280"/>
-      <c r="F2" s="280"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="280"/>
-      <c r="I2" s="280"/>
-      <c r="J2" s="280"/>
-      <c r="K2" s="280"/>
-      <c r="L2" s="280"/>
-      <c r="M2" s="280"/>
-      <c r="N2" s="280"/>
-      <c r="O2" s="280"/>
-      <c r="P2" s="280"/>
-      <c r="Q2" s="280"/>
+      <c r="A2" s="308"/>
+      <c r="B2" s="308"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="308"/>
+      <c r="H2" s="308"/>
+      <c r="I2" s="308"/>
+      <c r="J2" s="308"/>
+      <c r="K2" s="308"/>
+      <c r="L2" s="308"/>
+      <c r="M2" s="308"/>
+      <c r="N2" s="308"/>
+      <c r="O2" s="308"/>
+      <c r="P2" s="308"/>
+      <c r="Q2" s="308"/>
     </row>
     <row r="3" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="281" t="s">
+      <c r="A3" s="309" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="281"/>
-      <c r="C3" s="281"/>
-      <c r="D3" s="281"/>
-      <c r="E3" s="281"/>
-      <c r="F3" s="281"/>
-      <c r="G3" s="281"/>
-      <c r="H3" s="281"/>
-      <c r="I3" s="281"/>
-      <c r="J3" s="281"/>
-      <c r="K3" s="281"/>
-      <c r="L3" s="281"/>
-      <c r="M3" s="281"/>
-      <c r="N3" s="281"/>
-      <c r="O3" s="281"/>
-      <c r="P3" s="281"/>
-      <c r="Q3" s="281"/>
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="309"/>
+      <c r="E3" s="309"/>
+      <c r="F3" s="309"/>
+      <c r="G3" s="309"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="309"/>
+      <c r="J3" s="309"/>
+      <c r="K3" s="309"/>
+      <c r="L3" s="309"/>
+      <c r="M3" s="309"/>
+      <c r="N3" s="309"/>
+      <c r="O3" s="309"/>
+      <c r="P3" s="309"/>
+      <c r="Q3" s="309"/>
     </row>
     <row r="4" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="282" t="s">
+      <c r="A4" s="310" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="282"/>
-      <c r="C4" s="282"/>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="282"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="282"/>
-      <c r="L4" s="282"/>
-      <c r="M4" s="282"/>
-      <c r="N4" s="282"/>
-      <c r="O4" s="282"/>
-      <c r="P4" s="282"/>
-      <c r="Q4" s="282"/>
+      <c r="B4" s="310"/>
+      <c r="C4" s="310"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="310"/>
+      <c r="J4" s="310"/>
+      <c r="K4" s="310"/>
+      <c r="L4" s="310"/>
+      <c r="M4" s="310"/>
+      <c r="N4" s="310"/>
+      <c r="O4" s="310"/>
+      <c r="P4" s="310"/>
+      <c r="Q4" s="310"/>
     </row>
     <row r="5" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="289" t="s">
+      <c r="A5" s="317" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="290"/>
+      <c r="B5" s="318"/>
       <c r="C5" s="184"/>
       <c r="D5" s="185" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="185"/>
-      <c r="F5" s="285" t="s">
+      <c r="F5" s="313" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="285"/>
-      <c r="H5" s="285"/>
-      <c r="I5" s="285"/>
-      <c r="J5" s="285"/>
-      <c r="K5" s="285"/>
-      <c r="L5" s="285"/>
-      <c r="M5" s="285"/>
-      <c r="N5" s="285"/>
-      <c r="O5" s="285"/>
-      <c r="P5" s="285"/>
-      <c r="Q5" s="284"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="313"/>
+      <c r="I5" s="313"/>
+      <c r="J5" s="313"/>
+      <c r="K5" s="313"/>
+      <c r="L5" s="313"/>
+      <c r="M5" s="313"/>
+      <c r="N5" s="313"/>
+      <c r="O5" s="313"/>
+      <c r="P5" s="313"/>
+      <c r="Q5" s="312"/>
     </row>
     <row r="6" spans="1:19" s="120" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="141" t="s">
@@ -11490,11 +11483,11 @@
       <c r="Q27" s="193"/>
     </row>
     <row r="28" spans="1:17" s="129" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="277" t="s">
+      <c r="A28" s="305" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="278"/>
-      <c r="C28" s="279"/>
+      <c r="B28" s="306"/>
+      <c r="C28" s="307"/>
       <c r="D28" s="148">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -12228,10 +12221,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="291" t="s">
+      <c r="B1" s="319" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="291"/>
+      <c r="C1" s="319"/>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="231" t="s">

--- a/Feb'2021/13.02.2021/Bank Statement.xlsx
+++ b/Feb'2021/13.02.2021/Bank Statement.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -15,8 +15,9 @@
     <sheet name="Sheet2" sheetId="48" r:id="rId6"/>
     <sheet name="Extra Stock" sheetId="49" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="51" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="52" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -137,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="177">
   <si>
     <t>Bank Guarantee</t>
   </si>
@@ -619,9 +620,6 @@
     <t>07.02.2021</t>
   </si>
   <si>
-    <t>Date:08.02.2021</t>
-  </si>
-  <si>
     <t>08.02.2021</t>
   </si>
   <si>
@@ -665,17 +663,23 @@
   </si>
   <si>
     <t>Date:13.02.2021</t>
+  </si>
+  <si>
+    <t>Date:07.03.2021</t>
+  </si>
+  <si>
+    <t>G.A Target</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -927,14 +931,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -949,7 +945,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1046,6 +1042,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="56">
     <border>
@@ -2420,9 +2422,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2468,6 +2467,63 @@
     <xf numFmtId="2" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2478,63 +2534,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2591,19 +2590,19 @@
     <xf numFmtId="0" fontId="37" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2684,7 +2683,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2717,6 +2719,11 @@
       <color rgb="FFD8D8D8"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2860,6 +2867,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2894,6 +2902,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3069,7 +3078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3077,7 +3086,7 @@
       <selection pane="bottomLeft" activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="95" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="95"/>
@@ -3097,68 +3106,68 @@
     <col min="18" max="16384" width="9.140625" style="95"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="26.25">
-      <c r="A1" s="253" t="s">
+    <row r="1" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="246" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="253"/>
-      <c r="P1" s="253"/>
-      <c r="Q1" s="253"/>
-    </row>
-    <row r="2" spans="1:24" ht="18">
-      <c r="A2" s="254" t="s">
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="246"/>
+      <c r="O1" s="246"/>
+      <c r="P1" s="246"/>
+      <c r="Q1" s="246"/>
+    </row>
+    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="254"/>
-      <c r="N2" s="254"/>
-      <c r="O2" s="254"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-    </row>
-    <row r="3" spans="1:24" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="261" t="s">
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+    </row>
+    <row r="3" spans="1:24" s="97" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="262"/>
-      <c r="I3" s="262"/>
-      <c r="J3" s="262"/>
-      <c r="K3" s="262"/>
-      <c r="L3" s="262"/>
-      <c r="M3" s="262"/>
-      <c r="N3" s="262"/>
-      <c r="O3" s="262"/>
-      <c r="P3" s="262"/>
-      <c r="Q3" s="263"/>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="257"/>
+      <c r="M3" s="257"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="257"/>
+      <c r="P3" s="257"/>
+      <c r="Q3" s="258"/>
       <c r="S3" s="98"/>
       <c r="T3" s="99"/>
       <c r="U3" s="99"/>
@@ -3166,53 +3175,53 @@
       <c r="W3" s="99"/>
       <c r="X3" s="100"/>
     </row>
-    <row r="4" spans="1:24" s="100" customFormat="1">
-      <c r="A4" s="255" t="s">
+    <row r="4" spans="1:24" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="248" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="257" t="s">
+      <c r="B4" s="250" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="257" t="s">
+      <c r="C4" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="251" t="s">
+      <c r="D4" s="252" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="251" t="s">
+      <c r="E4" s="252" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="251" t="s">
+      <c r="F4" s="252" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="251" t="s">
+      <c r="G4" s="252" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="251" t="s">
+      <c r="H4" s="252" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="251" t="s">
+      <c r="I4" s="252" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="251" t="s">
+      <c r="J4" s="252" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="264" t="s">
+      <c r="K4" s="259" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="266" t="s">
+      <c r="L4" s="261" t="s">
         <v>143</v>
       </c>
-      <c r="M4" s="268" t="s">
+      <c r="M4" s="263" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="247" t="s">
+      <c r="N4" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="249" t="s">
+      <c r="O4" s="267" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="259" t="s">
+      <c r="P4" s="254" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="203" t="s">
@@ -3224,23 +3233,23 @@
       <c r="V4" s="99"/>
       <c r="W4" s="99"/>
     </row>
-    <row r="5" spans="1:24" s="100" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="256"/>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="252"/>
-      <c r="K5" s="265"/>
-      <c r="L5" s="267"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="248"/>
-      <c r="O5" s="250"/>
-      <c r="P5" s="260"/>
+    <row r="5" spans="1:24" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="249"/>
+      <c r="B5" s="251"/>
+      <c r="C5" s="251"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="253"/>
+      <c r="H5" s="253"/>
+      <c r="I5" s="253"/>
+      <c r="J5" s="253"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="264"/>
+      <c r="N5" s="266"/>
+      <c r="O5" s="268"/>
+      <c r="P5" s="255"/>
       <c r="Q5" s="204" t="s">
         <v>36</v>
       </c>
@@ -3251,7 +3260,7 @@
       <c r="W5" s="103"/>
       <c r="X5" s="104"/>
     </row>
-    <row r="6" spans="1:24" s="104" customFormat="1">
+    <row r="6" spans="1:24" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="212" t="s">
         <v>149</v>
       </c>
@@ -3283,7 +3292,7 @@
       <c r="V6" s="103"/>
       <c r="W6" s="99"/>
     </row>
-    <row r="7" spans="1:24" s="104" customFormat="1">
+    <row r="7" spans="1:24" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="212" t="s">
         <v>150</v>
       </c>
@@ -3317,7 +3326,7 @@
       <c r="V7" s="103"/>
       <c r="W7" s="103"/>
     </row>
-    <row r="8" spans="1:24" s="104" customFormat="1">
+    <row r="8" spans="1:24" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="212" t="s">
         <v>152</v>
       </c>
@@ -3355,7 +3364,7 @@
       <c r="V8" s="103"/>
       <c r="W8" s="99"/>
     </row>
-    <row r="9" spans="1:24" s="104" customFormat="1">
+    <row r="9" spans="1:24" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="212" t="s">
         <v>154</v>
       </c>
@@ -3391,7 +3400,7 @@
       <c r="V9" s="103"/>
       <c r="W9" s="103"/>
     </row>
-    <row r="10" spans="1:24" s="104" customFormat="1">
+    <row r="10" spans="1:24" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="212" t="s">
         <v>156</v>
       </c>
@@ -3423,7 +3432,7 @@
       <c r="V10" s="103"/>
       <c r="W10" s="99"/>
     </row>
-    <row r="11" spans="1:24" s="104" customFormat="1">
+    <row r="11" spans="1:24" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="212" t="s">
         <v>159</v>
       </c>
@@ -3455,9 +3464,9 @@
       <c r="V11" s="103"/>
       <c r="W11" s="103"/>
     </row>
-    <row r="12" spans="1:24" s="104" customFormat="1">
+    <row r="12" spans="1:24" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="212" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B12" s="216"/>
       <c r="C12" s="217"/>
@@ -3487,9 +3496,9 @@
       <c r="V12" s="103"/>
       <c r="W12" s="99"/>
     </row>
-    <row r="13" spans="1:24" s="104" customFormat="1">
+    <row r="13" spans="1:24" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="212" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" s="216"/>
       <c r="C13" s="217">
@@ -3521,9 +3530,9 @@
       <c r="V13" s="103"/>
       <c r="W13" s="103"/>
     </row>
-    <row r="14" spans="1:24" s="104" customFormat="1">
+    <row r="14" spans="1:24" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="212" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="216"/>
       <c r="C14" s="217"/>
@@ -3553,9 +3562,9 @@
       <c r="V14" s="103"/>
       <c r="W14" s="99"/>
     </row>
-    <row r="15" spans="1:24" s="104" customFormat="1">
+    <row r="15" spans="1:24" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="212" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" s="216"/>
       <c r="C15" s="217"/>
@@ -3585,9 +3594,9 @@
       <c r="V15" s="103"/>
       <c r="W15" s="103"/>
     </row>
-    <row r="16" spans="1:24" s="104" customFormat="1">
+    <row r="16" spans="1:24" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="212" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" s="216"/>
       <c r="C16" s="217"/>
@@ -3617,7 +3626,7 @@
       <c r="V16" s="103"/>
       <c r="W16" s="99"/>
     </row>
-    <row r="17" spans="1:23" s="104" customFormat="1">
+    <row r="17" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="212"/>
       <c r="B17" s="216"/>
       <c r="C17" s="217"/>
@@ -3645,7 +3654,7 @@
       <c r="V17" s="103"/>
       <c r="W17" s="103"/>
     </row>
-    <row r="18" spans="1:23" s="104" customFormat="1">
+    <row r="18" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
       <c r="B18" s="216"/>
       <c r="C18" s="217"/>
@@ -3673,7 +3682,7 @@
       <c r="V18" s="103"/>
       <c r="W18" s="99"/>
     </row>
-    <row r="19" spans="1:23" s="104" customFormat="1">
+    <row r="19" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="212"/>
       <c r="B19" s="216"/>
       <c r="C19" s="217"/>
@@ -3701,7 +3710,7 @@
       <c r="V19" s="103"/>
       <c r="W19" s="103"/>
     </row>
-    <row r="20" spans="1:23" s="104" customFormat="1">
+    <row r="20" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="212"/>
       <c r="B20" s="216"/>
       <c r="C20" s="217"/>
@@ -3729,7 +3738,7 @@
       <c r="V20" s="103"/>
       <c r="W20" s="99"/>
     </row>
-    <row r="21" spans="1:23" s="104" customFormat="1">
+    <row r="21" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="212"/>
       <c r="B21" s="216"/>
       <c r="C21" s="217"/>
@@ -3756,7 +3765,7 @@
       <c r="V21" s="110"/>
       <c r="W21" s="110"/>
     </row>
-    <row r="22" spans="1:23" s="106" customFormat="1">
+    <row r="22" spans="1:23" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="212"/>
       <c r="B22" s="216"/>
       <c r="C22" s="217"/>
@@ -3780,7 +3789,7 @@
       <c r="R22" s="109"/>
       <c r="S22" s="67"/>
     </row>
-    <row r="23" spans="1:23" s="104" customFormat="1">
+    <row r="23" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="212"/>
       <c r="B23" s="216"/>
       <c r="C23" s="217"/>
@@ -3804,7 +3813,7 @@
       <c r="R23" s="105"/>
       <c r="S23" s="67"/>
     </row>
-    <row r="24" spans="1:23" s="104" customFormat="1">
+    <row r="24" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="217"/>
       <c r="B24" s="216"/>
       <c r="C24" s="217"/>
@@ -3828,7 +3837,7 @@
       <c r="R24" s="105"/>
       <c r="S24" s="67"/>
     </row>
-    <row r="25" spans="1:23" s="104" customFormat="1">
+    <row r="25" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="217"/>
       <c r="B25" s="216"/>
       <c r="C25" s="217"/>
@@ -3854,7 +3863,7 @@
       <c r="T25" s="111"/>
       <c r="U25" s="111"/>
     </row>
-    <row r="26" spans="1:23" s="104" customFormat="1">
+    <row r="26" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="217"/>
       <c r="B26" s="216"/>
       <c r="C26" s="217"/>
@@ -3880,7 +3889,7 @@
       <c r="T26" s="112"/>
       <c r="U26" s="112"/>
     </row>
-    <row r="27" spans="1:23" s="104" customFormat="1">
+    <row r="27" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="217"/>
       <c r="B27" s="216"/>
       <c r="C27" s="217"/>
@@ -3906,7 +3915,7 @@
       <c r="T27" s="111"/>
       <c r="U27" s="111"/>
     </row>
-    <row r="28" spans="1:23" s="104" customFormat="1">
+    <row r="28" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="217"/>
       <c r="B28" s="216"/>
       <c r="C28" s="217"/>
@@ -3929,7 +3938,7 @@
       </c>
       <c r="R28" s="105"/>
     </row>
-    <row r="29" spans="1:23" s="106" customFormat="1">
+    <row r="29" spans="1:23" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="217"/>
       <c r="B29" s="216"/>
       <c r="C29" s="217"/>
@@ -3952,7 +3961,7 @@
       </c>
       <c r="R29" s="109"/>
     </row>
-    <row r="30" spans="1:23" s="104" customFormat="1">
+    <row r="30" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="217"/>
       <c r="B30" s="216"/>
       <c r="C30" s="217"/>
@@ -3975,7 +3984,7 @@
       </c>
       <c r="R30" s="105"/>
     </row>
-    <row r="31" spans="1:23" s="104" customFormat="1">
+    <row r="31" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="217"/>
       <c r="B31" s="216"/>
       <c r="C31" s="217"/>
@@ -3998,7 +4007,7 @@
       </c>
       <c r="R31" s="105"/>
     </row>
-    <row r="32" spans="1:23" s="104" customFormat="1">
+    <row r="32" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="217"/>
       <c r="B32" s="216"/>
       <c r="C32" s="217"/>
@@ -4021,7 +4030,7 @@
       </c>
       <c r="R32" s="105"/>
     </row>
-    <row r="33" spans="1:18" s="104" customFormat="1" ht="15.75" thickBot="1">
+    <row r="33" spans="1:18" s="104" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="217"/>
       <c r="B33" s="221"/>
       <c r="C33" s="222"/>
@@ -4044,7 +4053,7 @@
       </c>
       <c r="R33" s="105"/>
     </row>
-    <row r="34" spans="1:18" s="113" customFormat="1" ht="15.75" thickBot="1">
+    <row r="34" spans="1:18" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="207" t="s">
         <v>38</v>
       </c>
@@ -4113,7 +4122,7 @@
         <v>21264</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="114"/>
       <c r="B35" s="115"/>
       <c r="C35" s="115"/>
@@ -4132,1972 +4141,1972 @@
       <c r="P35" s="116"/>
       <c r="Q35" s="117"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F36" s="118"/>
       <c r="G36" s="118"/>
       <c r="H36" s="118"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="118"/>
       <c r="B37" s="118"/>
       <c r="C37" s="118"/>
       <c r="D37" s="118"/>
       <c r="E37" s="118"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="118"/>
       <c r="B38" s="118"/>
       <c r="C38" s="118"/>
       <c r="D38" s="118"/>
       <c r="E38" s="118"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="118"/>
       <c r="B39" s="118"/>
       <c r="C39" s="118"/>
       <c r="D39" s="118"/>
       <c r="E39" s="118"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="118"/>
       <c r="B40" s="118"/>
       <c r="C40" s="118"/>
       <c r="D40" s="118"/>
       <c r="E40" s="118"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="118"/>
       <c r="B41" s="118"/>
       <c r="C41" s="118"/>
       <c r="D41" s="118"/>
       <c r="E41" s="118"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="118"/>
       <c r="B42" s="118"/>
       <c r="C42" s="118"/>
       <c r="D42" s="118"/>
       <c r="E42" s="118"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="118"/>
       <c r="B43" s="118"/>
       <c r="C43" s="118"/>
       <c r="D43" s="118"/>
       <c r="E43" s="118"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="118"/>
       <c r="B44" s="118"/>
       <c r="C44" s="118"/>
       <c r="D44" s="118"/>
       <c r="E44" s="118"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="118"/>
       <c r="B45" s="118"/>
       <c r="C45" s="118"/>
       <c r="D45" s="118"/>
       <c r="E45" s="118"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="118"/>
       <c r="B46" s="118"/>
       <c r="C46" s="118"/>
       <c r="D46" s="118"/>
       <c r="E46" s="118"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="118"/>
       <c r="B47" s="118"/>
       <c r="C47" s="118"/>
       <c r="D47" s="118"/>
       <c r="E47" s="118"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="118"/>
       <c r="B48" s="118"/>
       <c r="C48" s="118"/>
       <c r="D48" s="118"/>
       <c r="E48" s="118"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="118"/>
       <c r="B49" s="118"/>
       <c r="C49" s="118"/>
       <c r="D49" s="118"/>
       <c r="E49" s="118"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="118"/>
       <c r="B50" s="118"/>
       <c r="C50" s="118"/>
       <c r="D50" s="118"/>
       <c r="E50" s="118"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="118"/>
       <c r="B51" s="118"/>
       <c r="C51" s="118"/>
       <c r="D51" s="118"/>
       <c r="E51" s="118"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="118"/>
       <c r="B52" s="118"/>
       <c r="C52" s="118"/>
       <c r="D52" s="118"/>
       <c r="E52" s="118"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="118"/>
       <c r="B53" s="118"/>
       <c r="C53" s="118"/>
       <c r="D53" s="118"/>
       <c r="E53" s="118"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="118"/>
       <c r="B54" s="118"/>
       <c r="C54" s="118"/>
       <c r="D54" s="118"/>
       <c r="E54" s="118"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="118"/>
       <c r="B55" s="118"/>
       <c r="C55" s="118"/>
       <c r="D55" s="118"/>
       <c r="E55" s="118"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="118"/>
       <c r="B56" s="118"/>
       <c r="C56" s="118"/>
       <c r="D56" s="118"/>
       <c r="E56" s="118"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="118"/>
       <c r="B57" s="118"/>
       <c r="C57" s="118"/>
       <c r="D57" s="118"/>
       <c r="E57" s="118"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="118"/>
       <c r="B58" s="118"/>
       <c r="C58" s="118"/>
       <c r="D58" s="118"/>
       <c r="E58" s="118"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="118"/>
       <c r="B59" s="118"/>
       <c r="C59" s="118"/>
       <c r="D59" s="118"/>
       <c r="E59" s="118"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="118"/>
       <c r="B60" s="118"/>
       <c r="C60" s="118"/>
       <c r="D60" s="118"/>
       <c r="E60" s="118"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="118"/>
       <c r="B61" s="118"/>
       <c r="C61" s="118"/>
       <c r="D61" s="118"/>
       <c r="E61" s="118"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="118"/>
       <c r="B62" s="118"/>
       <c r="C62" s="118"/>
       <c r="D62" s="118"/>
       <c r="E62" s="118"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="118"/>
       <c r="B63" s="118"/>
       <c r="C63" s="118"/>
       <c r="D63" s="118"/>
       <c r="E63" s="118"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="118"/>
       <c r="B64" s="118"/>
       <c r="C64" s="118"/>
       <c r="D64" s="118"/>
       <c r="E64" s="118"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="118"/>
       <c r="B65" s="118"/>
       <c r="C65" s="118"/>
       <c r="D65" s="118"/>
       <c r="E65" s="118"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="118"/>
       <c r="B66" s="118"/>
       <c r="C66" s="118"/>
       <c r="D66" s="118"/>
       <c r="E66" s="118"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="118"/>
       <c r="B67" s="118"/>
       <c r="C67" s="118"/>
       <c r="D67" s="118"/>
       <c r="E67" s="118"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="118"/>
       <c r="B68" s="118"/>
       <c r="C68" s="118"/>
       <c r="D68" s="118"/>
       <c r="E68" s="118"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="118"/>
       <c r="B69" s="118"/>
       <c r="C69" s="118"/>
       <c r="D69" s="118"/>
       <c r="E69" s="118"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="118"/>
       <c r="B70" s="118"/>
       <c r="C70" s="118"/>
       <c r="D70" s="118"/>
       <c r="E70" s="118"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="118"/>
       <c r="B71" s="118"/>
       <c r="C71" s="118"/>
       <c r="D71" s="118"/>
       <c r="E71" s="118"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="118"/>
       <c r="B72" s="118"/>
       <c r="C72" s="118"/>
       <c r="D72" s="118"/>
       <c r="E72" s="118"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="118"/>
       <c r="B73" s="118"/>
       <c r="C73" s="118"/>
       <c r="D73" s="118"/>
       <c r="E73" s="118"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="118"/>
       <c r="B74" s="118"/>
       <c r="C74" s="118"/>
       <c r="D74" s="118"/>
       <c r="E74" s="118"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="118"/>
       <c r="B75" s="118"/>
       <c r="C75" s="118"/>
       <c r="D75" s="118"/>
       <c r="E75" s="118"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="118"/>
       <c r="B76" s="118"/>
       <c r="C76" s="118"/>
       <c r="D76" s="118"/>
       <c r="E76" s="118"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="118"/>
       <c r="B77" s="118"/>
       <c r="C77" s="118"/>
       <c r="D77" s="118"/>
       <c r="E77" s="118"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="118"/>
       <c r="B78" s="118"/>
       <c r="C78" s="118"/>
       <c r="D78" s="118"/>
       <c r="E78" s="118"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="118"/>
       <c r="B79" s="118"/>
       <c r="C79" s="118"/>
       <c r="D79" s="118"/>
       <c r="E79" s="118"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="118"/>
       <c r="B80" s="118"/>
       <c r="C80" s="118"/>
       <c r="D80" s="118"/>
       <c r="E80" s="118"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="118"/>
       <c r="B81" s="118"/>
       <c r="C81" s="118"/>
       <c r="D81" s="118"/>
       <c r="E81" s="118"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="118"/>
       <c r="B82" s="118"/>
       <c r="C82" s="118"/>
       <c r="D82" s="118"/>
       <c r="E82" s="118"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="118"/>
       <c r="B83" s="118"/>
       <c r="C83" s="118"/>
       <c r="D83" s="118"/>
       <c r="E83" s="118"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="118"/>
       <c r="B84" s="118"/>
       <c r="C84" s="118"/>
       <c r="D84" s="118"/>
       <c r="E84" s="118"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="118"/>
       <c r="B85" s="118"/>
       <c r="C85" s="118"/>
       <c r="D85" s="118"/>
       <c r="E85" s="118"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="118"/>
       <c r="B86" s="118"/>
       <c r="C86" s="118"/>
       <c r="D86" s="118"/>
       <c r="E86" s="118"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="118"/>
       <c r="B87" s="118"/>
       <c r="C87" s="118"/>
       <c r="D87" s="118"/>
       <c r="E87" s="118"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="118"/>
       <c r="B88" s="118"/>
       <c r="C88" s="118"/>
       <c r="D88" s="118"/>
       <c r="E88" s="118"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="118"/>
       <c r="B89" s="118"/>
       <c r="C89" s="118"/>
       <c r="D89" s="118"/>
       <c r="E89" s="118"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="118"/>
       <c r="B90" s="118"/>
       <c r="C90" s="118"/>
       <c r="D90" s="118"/>
       <c r="E90" s="118"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="118"/>
       <c r="B91" s="118"/>
       <c r="C91" s="118"/>
       <c r="D91" s="118"/>
       <c r="E91" s="118"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="118"/>
       <c r="B92" s="118"/>
       <c r="C92" s="118"/>
       <c r="D92" s="118"/>
       <c r="E92" s="118"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="118"/>
       <c r="B93" s="118"/>
       <c r="C93" s="118"/>
       <c r="D93" s="118"/>
       <c r="E93" s="118"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="118"/>
       <c r="B94" s="118"/>
       <c r="C94" s="118"/>
       <c r="D94" s="118"/>
       <c r="E94" s="118"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="118"/>
       <c r="B95" s="118"/>
       <c r="C95" s="118"/>
       <c r="D95" s="118"/>
       <c r="E95" s="118"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="118"/>
       <c r="B96" s="118"/>
       <c r="C96" s="118"/>
       <c r="D96" s="118"/>
       <c r="E96" s="118"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="118"/>
       <c r="B97" s="118"/>
       <c r="C97" s="118"/>
       <c r="D97" s="118"/>
       <c r="E97" s="118"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="118"/>
       <c r="B98" s="118"/>
       <c r="C98" s="118"/>
       <c r="D98" s="118"/>
       <c r="E98" s="118"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="118"/>
       <c r="B99" s="118"/>
       <c r="C99" s="118"/>
       <c r="D99" s="118"/>
       <c r="E99" s="118"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="118"/>
       <c r="B100" s="118"/>
       <c r="C100" s="118"/>
       <c r="D100" s="118"/>
       <c r="E100" s="118"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="118"/>
       <c r="B101" s="118"/>
       <c r="C101" s="118"/>
       <c r="D101" s="118"/>
       <c r="E101" s="118"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="118"/>
       <c r="B102" s="118"/>
       <c r="C102" s="118"/>
       <c r="D102" s="118"/>
       <c r="E102" s="118"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="118"/>
       <c r="B103" s="118"/>
       <c r="C103" s="118"/>
       <c r="D103" s="118"/>
       <c r="E103" s="118"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="118"/>
       <c r="B104" s="118"/>
       <c r="C104" s="118"/>
       <c r="D104" s="118"/>
       <c r="E104" s="118"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="118"/>
       <c r="B105" s="118"/>
       <c r="C105" s="118"/>
       <c r="D105" s="118"/>
       <c r="E105" s="118"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="118"/>
       <c r="B106" s="118"/>
       <c r="C106" s="118"/>
       <c r="D106" s="118"/>
       <c r="E106" s="118"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="118"/>
       <c r="B107" s="118"/>
       <c r="C107" s="118"/>
       <c r="D107" s="118"/>
       <c r="E107" s="118"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="118"/>
       <c r="B108" s="118"/>
       <c r="C108" s="118"/>
       <c r="D108" s="118"/>
       <c r="E108" s="118"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="118"/>
       <c r="B109" s="118"/>
       <c r="C109" s="118"/>
       <c r="D109" s="118"/>
       <c r="E109" s="118"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="118"/>
       <c r="B110" s="118"/>
       <c r="C110" s="118"/>
       <c r="D110" s="118"/>
       <c r="E110" s="118"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="118"/>
       <c r="B111" s="118"/>
       <c r="C111" s="118"/>
       <c r="D111" s="118"/>
       <c r="E111" s="118"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="118"/>
       <c r="B112" s="118"/>
       <c r="C112" s="118"/>
       <c r="D112" s="118"/>
       <c r="E112" s="118"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="118"/>
       <c r="B113" s="118"/>
       <c r="C113" s="118"/>
       <c r="D113" s="118"/>
       <c r="E113" s="118"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="118"/>
       <c r="B114" s="118"/>
       <c r="C114" s="118"/>
       <c r="D114" s="118"/>
       <c r="E114" s="118"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="118"/>
       <c r="B115" s="118"/>
       <c r="C115" s="118"/>
       <c r="D115" s="118"/>
       <c r="E115" s="118"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="118"/>
       <c r="B116" s="118"/>
       <c r="C116" s="118"/>
       <c r="D116" s="118"/>
       <c r="E116" s="118"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="118"/>
       <c r="B117" s="118"/>
       <c r="C117" s="118"/>
       <c r="D117" s="118"/>
       <c r="E117" s="118"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="118"/>
       <c r="B118" s="118"/>
       <c r="C118" s="118"/>
       <c r="D118" s="118"/>
       <c r="E118" s="118"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="118"/>
       <c r="B119" s="118"/>
       <c r="C119" s="118"/>
       <c r="D119" s="118"/>
       <c r="E119" s="118"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="118"/>
       <c r="B120" s="118"/>
       <c r="C120" s="118"/>
       <c r="D120" s="118"/>
       <c r="E120" s="118"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="118"/>
       <c r="B121" s="118"/>
       <c r="C121" s="118"/>
       <c r="D121" s="118"/>
       <c r="E121" s="118"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="118"/>
       <c r="B122" s="118"/>
       <c r="C122" s="118"/>
       <c r="D122" s="118"/>
       <c r="E122" s="118"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="118"/>
       <c r="B123" s="118"/>
       <c r="C123" s="118"/>
       <c r="D123" s="118"/>
       <c r="E123" s="118"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="118"/>
       <c r="B124" s="118"/>
       <c r="C124" s="118"/>
       <c r="D124" s="118"/>
       <c r="E124" s="118"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="118"/>
       <c r="B125" s="118"/>
       <c r="C125" s="118"/>
       <c r="D125" s="118"/>
       <c r="E125" s="118"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="118"/>
       <c r="B126" s="118"/>
       <c r="C126" s="118"/>
       <c r="D126" s="118"/>
       <c r="E126" s="118"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="118"/>
       <c r="B127" s="118"/>
       <c r="C127" s="118"/>
       <c r="D127" s="118"/>
       <c r="E127" s="118"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="118"/>
       <c r="B128" s="118"/>
       <c r="C128" s="118"/>
       <c r="D128" s="118"/>
       <c r="E128" s="118"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="118"/>
       <c r="B129" s="118"/>
       <c r="C129" s="118"/>
       <c r="D129" s="118"/>
       <c r="E129" s="118"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="118"/>
       <c r="B130" s="118"/>
       <c r="C130" s="118"/>
       <c r="D130" s="118"/>
       <c r="E130" s="118"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="118"/>
       <c r="B131" s="118"/>
       <c r="C131" s="118"/>
       <c r="D131" s="118"/>
       <c r="E131" s="118"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="118"/>
       <c r="B132" s="118"/>
       <c r="C132" s="118"/>
       <c r="D132" s="118"/>
       <c r="E132" s="118"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="118"/>
       <c r="B133" s="118"/>
       <c r="C133" s="118"/>
       <c r="D133" s="118"/>
       <c r="E133" s="118"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="118"/>
       <c r="B134" s="118"/>
       <c r="C134" s="118"/>
       <c r="D134" s="118"/>
       <c r="E134" s="118"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="118"/>
       <c r="B135" s="118"/>
       <c r="C135" s="118"/>
       <c r="D135" s="118"/>
       <c r="E135" s="118"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="118"/>
       <c r="B136" s="118"/>
       <c r="C136" s="118"/>
       <c r="D136" s="118"/>
       <c r="E136" s="118"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="118"/>
       <c r="B137" s="118"/>
       <c r="C137" s="118"/>
       <c r="D137" s="118"/>
       <c r="E137" s="118"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="118"/>
       <c r="B138" s="118"/>
       <c r="C138" s="118"/>
       <c r="D138" s="118"/>
       <c r="E138" s="118"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="118"/>
       <c r="B139" s="118"/>
       <c r="C139" s="118"/>
       <c r="D139" s="118"/>
       <c r="E139" s="118"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="118"/>
       <c r="B140" s="118"/>
       <c r="C140" s="118"/>
       <c r="D140" s="118"/>
       <c r="E140" s="118"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="118"/>
       <c r="B141" s="118"/>
       <c r="C141" s="118"/>
       <c r="D141" s="118"/>
       <c r="E141" s="118"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="118"/>
       <c r="B142" s="118"/>
       <c r="C142" s="118"/>
       <c r="D142" s="118"/>
       <c r="E142" s="118"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="118"/>
       <c r="B143" s="118"/>
       <c r="C143" s="118"/>
       <c r="D143" s="118"/>
       <c r="E143" s="118"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="118"/>
       <c r="B144" s="118"/>
       <c r="C144" s="118"/>
       <c r="D144" s="118"/>
       <c r="E144" s="118"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="118"/>
       <c r="B145" s="118"/>
       <c r="C145" s="118"/>
       <c r="D145" s="118"/>
       <c r="E145" s="118"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="118"/>
       <c r="B146" s="118"/>
       <c r="C146" s="118"/>
       <c r="D146" s="118"/>
       <c r="E146" s="118"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="118"/>
       <c r="B147" s="118"/>
       <c r="C147" s="118"/>
       <c r="D147" s="118"/>
       <c r="E147" s="118"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="118"/>
       <c r="B148" s="118"/>
       <c r="C148" s="118"/>
       <c r="D148" s="118"/>
       <c r="E148" s="118"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="118"/>
       <c r="B149" s="118"/>
       <c r="C149" s="118"/>
       <c r="D149" s="118"/>
       <c r="E149" s="118"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="118"/>
       <c r="B150" s="118"/>
       <c r="C150" s="118"/>
       <c r="D150" s="118"/>
       <c r="E150" s="118"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="118"/>
       <c r="B151" s="118"/>
       <c r="C151" s="118"/>
       <c r="D151" s="118"/>
       <c r="E151" s="118"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="118"/>
       <c r="B152" s="118"/>
       <c r="C152" s="118"/>
       <c r="D152" s="118"/>
       <c r="E152" s="118"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="118"/>
       <c r="B153" s="118"/>
       <c r="C153" s="118"/>
       <c r="D153" s="118"/>
       <c r="E153" s="118"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="118"/>
       <c r="B154" s="118"/>
       <c r="C154" s="118"/>
       <c r="D154" s="118"/>
       <c r="E154" s="118"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="118"/>
       <c r="B155" s="118"/>
       <c r="C155" s="118"/>
       <c r="D155" s="118"/>
       <c r="E155" s="118"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="118"/>
       <c r="B156" s="118"/>
       <c r="C156" s="118"/>
       <c r="D156" s="118"/>
       <c r="E156" s="118"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="118"/>
       <c r="B157" s="118"/>
       <c r="C157" s="118"/>
       <c r="D157" s="118"/>
       <c r="E157" s="118"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="118"/>
       <c r="B158" s="118"/>
       <c r="C158" s="118"/>
       <c r="D158" s="118"/>
       <c r="E158" s="118"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="118"/>
       <c r="B159" s="118"/>
       <c r="C159" s="118"/>
       <c r="D159" s="118"/>
       <c r="E159" s="118"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="118"/>
       <c r="B160" s="118"/>
       <c r="C160" s="118"/>
       <c r="D160" s="118"/>
       <c r="E160" s="118"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="118"/>
       <c r="B161" s="118"/>
       <c r="C161" s="118"/>
       <c r="D161" s="118"/>
       <c r="E161" s="118"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="118"/>
       <c r="B162" s="118"/>
       <c r="C162" s="118"/>
       <c r="D162" s="118"/>
       <c r="E162" s="118"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="118"/>
       <c r="B163" s="118"/>
       <c r="C163" s="118"/>
       <c r="D163" s="118"/>
       <c r="E163" s="118"/>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="118"/>
       <c r="B164" s="118"/>
       <c r="C164" s="118"/>
       <c r="D164" s="118"/>
       <c r="E164" s="118"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="118"/>
       <c r="B165" s="118"/>
       <c r="C165" s="118"/>
       <c r="D165" s="118"/>
       <c r="E165" s="118"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="118"/>
       <c r="B166" s="118"/>
       <c r="C166" s="118"/>
       <c r="D166" s="118"/>
       <c r="E166" s="118"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="118"/>
       <c r="B167" s="118"/>
       <c r="C167" s="118"/>
       <c r="D167" s="118"/>
       <c r="E167" s="118"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="118"/>
       <c r="B168" s="118"/>
       <c r="C168" s="118"/>
       <c r="D168" s="118"/>
       <c r="E168" s="118"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="118"/>
       <c r="B169" s="118"/>
       <c r="C169" s="118"/>
       <c r="D169" s="118"/>
       <c r="E169" s="118"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="118"/>
       <c r="B170" s="118"/>
       <c r="C170" s="118"/>
       <c r="D170" s="118"/>
       <c r="E170" s="118"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="118"/>
       <c r="B171" s="118"/>
       <c r="C171" s="118"/>
       <c r="D171" s="118"/>
       <c r="E171" s="118"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="118"/>
       <c r="B172" s="118"/>
       <c r="C172" s="118"/>
       <c r="D172" s="118"/>
       <c r="E172" s="118"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="118"/>
       <c r="B173" s="118"/>
       <c r="C173" s="118"/>
       <c r="D173" s="118"/>
       <c r="E173" s="118"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="118"/>
       <c r="B174" s="118"/>
       <c r="C174" s="118"/>
       <c r="D174" s="118"/>
       <c r="E174" s="118"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="118"/>
       <c r="B175" s="118"/>
       <c r="C175" s="118"/>
       <c r="D175" s="118"/>
       <c r="E175" s="118"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="118"/>
       <c r="B176" s="118"/>
       <c r="C176" s="118"/>
       <c r="D176" s="118"/>
       <c r="E176" s="118"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="118"/>
       <c r="B177" s="118"/>
       <c r="C177" s="118"/>
       <c r="D177" s="118"/>
       <c r="E177" s="118"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="118"/>
       <c r="B178" s="118"/>
       <c r="C178" s="118"/>
       <c r="D178" s="118"/>
       <c r="E178" s="118"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="118"/>
       <c r="B179" s="118"/>
       <c r="C179" s="118"/>
       <c r="D179" s="118"/>
       <c r="E179" s="118"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="118"/>
       <c r="B180" s="118"/>
       <c r="C180" s="118"/>
       <c r="D180" s="118"/>
       <c r="E180" s="118"/>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="118"/>
       <c r="B181" s="118"/>
       <c r="C181" s="118"/>
       <c r="D181" s="118"/>
       <c r="E181" s="118"/>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="118"/>
       <c r="B182" s="118"/>
       <c r="C182" s="118"/>
       <c r="D182" s="118"/>
       <c r="E182" s="118"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="118"/>
       <c r="B183" s="118"/>
       <c r="C183" s="118"/>
       <c r="D183" s="118"/>
       <c r="E183" s="118"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="118"/>
       <c r="B184" s="118"/>
       <c r="C184" s="118"/>
       <c r="D184" s="118"/>
       <c r="E184" s="118"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="118"/>
       <c r="B185" s="118"/>
       <c r="C185" s="118"/>
       <c r="D185" s="118"/>
       <c r="E185" s="118"/>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="118"/>
       <c r="B186" s="118"/>
       <c r="C186" s="118"/>
       <c r="D186" s="118"/>
       <c r="E186" s="118"/>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="118"/>
       <c r="B187" s="118"/>
       <c r="C187" s="118"/>
       <c r="D187" s="118"/>
       <c r="E187" s="118"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="118"/>
       <c r="B188" s="118"/>
       <c r="C188" s="118"/>
       <c r="D188" s="118"/>
       <c r="E188" s="118"/>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="118"/>
       <c r="B189" s="118"/>
       <c r="C189" s="118"/>
       <c r="D189" s="118"/>
       <c r="E189" s="118"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="118"/>
       <c r="B190" s="118"/>
       <c r="C190" s="118"/>
       <c r="D190" s="118"/>
       <c r="E190" s="118"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="118"/>
       <c r="B191" s="118"/>
       <c r="C191" s="118"/>
       <c r="D191" s="118"/>
       <c r="E191" s="118"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="118"/>
       <c r="B192" s="118"/>
       <c r="C192" s="118"/>
       <c r="D192" s="118"/>
       <c r="E192" s="118"/>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="118"/>
       <c r="B193" s="118"/>
       <c r="C193" s="118"/>
       <c r="D193" s="118"/>
       <c r="E193" s="118"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="118"/>
       <c r="B194" s="118"/>
       <c r="C194" s="118"/>
       <c r="D194" s="118"/>
       <c r="E194" s="118"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="118"/>
       <c r="B195" s="118"/>
       <c r="C195" s="118"/>
       <c r="D195" s="118"/>
       <c r="E195" s="118"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="118"/>
       <c r="B196" s="118"/>
       <c r="C196" s="118"/>
       <c r="D196" s="118"/>
       <c r="E196" s="118"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="118"/>
       <c r="B197" s="118"/>
       <c r="C197" s="118"/>
       <c r="D197" s="118"/>
       <c r="E197" s="118"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="118"/>
       <c r="B198" s="118"/>
       <c r="C198" s="118"/>
       <c r="D198" s="118"/>
       <c r="E198" s="118"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="118"/>
       <c r="B199" s="118"/>
       <c r="C199" s="118"/>
       <c r="D199" s="118"/>
       <c r="E199" s="118"/>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="118"/>
       <c r="B200" s="118"/>
       <c r="C200" s="118"/>
       <c r="D200" s="118"/>
       <c r="E200" s="118"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="118"/>
       <c r="B201" s="118"/>
       <c r="C201" s="118"/>
       <c r="D201" s="118"/>
       <c r="E201" s="118"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="118"/>
       <c r="B202" s="118"/>
       <c r="C202" s="118"/>
       <c r="D202" s="118"/>
       <c r="E202" s="118"/>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="118"/>
       <c r="B203" s="118"/>
       <c r="C203" s="118"/>
       <c r="D203" s="118"/>
       <c r="E203" s="118"/>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="118"/>
       <c r="B204" s="118"/>
       <c r="C204" s="118"/>
       <c r="D204" s="118"/>
       <c r="E204" s="118"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="118"/>
       <c r="B205" s="118"/>
       <c r="C205" s="118"/>
       <c r="D205" s="118"/>
       <c r="E205" s="118"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="118"/>
       <c r="B206" s="118"/>
       <c r="C206" s="118"/>
       <c r="D206" s="118"/>
       <c r="E206" s="118"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="118"/>
       <c r="B207" s="118"/>
       <c r="C207" s="118"/>
       <c r="D207" s="118"/>
       <c r="E207" s="118"/>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="118"/>
       <c r="B208" s="118"/>
       <c r="C208" s="118"/>
       <c r="D208" s="118"/>
       <c r="E208" s="118"/>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="118"/>
       <c r="B209" s="118"/>
       <c r="C209" s="118"/>
       <c r="D209" s="118"/>
       <c r="E209" s="118"/>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="118"/>
       <c r="B210" s="118"/>
       <c r="C210" s="118"/>
       <c r="D210" s="118"/>
       <c r="E210" s="118"/>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="118"/>
       <c r="B211" s="118"/>
       <c r="C211" s="118"/>
       <c r="D211" s="118"/>
       <c r="E211" s="118"/>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="118"/>
       <c r="B212" s="118"/>
       <c r="C212" s="118"/>
       <c r="D212" s="118"/>
       <c r="E212" s="118"/>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="118"/>
       <c r="B213" s="118"/>
       <c r="C213" s="118"/>
       <c r="D213" s="118"/>
       <c r="E213" s="118"/>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="118"/>
       <c r="B214" s="118"/>
       <c r="C214" s="118"/>
       <c r="D214" s="118"/>
       <c r="E214" s="118"/>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="118"/>
       <c r="B215" s="118"/>
       <c r="C215" s="118"/>
       <c r="D215" s="118"/>
       <c r="E215" s="118"/>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="118"/>
       <c r="B216" s="118"/>
       <c r="C216" s="118"/>
       <c r="D216" s="118"/>
       <c r="E216" s="118"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="118"/>
       <c r="B217" s="118"/>
       <c r="C217" s="118"/>
       <c r="D217" s="118"/>
       <c r="E217" s="118"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="118"/>
       <c r="B218" s="118"/>
       <c r="C218" s="118"/>
       <c r="D218" s="118"/>
       <c r="E218" s="118"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="118"/>
       <c r="B219" s="118"/>
       <c r="C219" s="118"/>
       <c r="D219" s="118"/>
       <c r="E219" s="118"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="118"/>
       <c r="B220" s="118"/>
       <c r="C220" s="118"/>
       <c r="D220" s="118"/>
       <c r="E220" s="118"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="118"/>
       <c r="B221" s="118"/>
       <c r="C221" s="118"/>
       <c r="D221" s="118"/>
       <c r="E221" s="118"/>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="118"/>
       <c r="B222" s="118"/>
       <c r="C222" s="118"/>
       <c r="D222" s="118"/>
       <c r="E222" s="118"/>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="118"/>
       <c r="B223" s="118"/>
       <c r="C223" s="118"/>
       <c r="D223" s="118"/>
       <c r="E223" s="118"/>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="118"/>
       <c r="B224" s="118"/>
       <c r="C224" s="118"/>
       <c r="D224" s="118"/>
       <c r="E224" s="118"/>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="118"/>
       <c r="B225" s="118"/>
       <c r="C225" s="118"/>
       <c r="D225" s="118"/>
       <c r="E225" s="118"/>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="118"/>
       <c r="B226" s="118"/>
       <c r="C226" s="118"/>
       <c r="D226" s="118"/>
       <c r="E226" s="118"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="118"/>
       <c r="B227" s="118"/>
       <c r="C227" s="118"/>
       <c r="D227" s="118"/>
       <c r="E227" s="118"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="118"/>
       <c r="B228" s="118"/>
       <c r="C228" s="118"/>
       <c r="D228" s="118"/>
       <c r="E228" s="118"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="118"/>
       <c r="B229" s="118"/>
       <c r="C229" s="118"/>
       <c r="D229" s="118"/>
       <c r="E229" s="118"/>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="118"/>
       <c r="B230" s="118"/>
       <c r="C230" s="118"/>
       <c r="D230" s="118"/>
       <c r="E230" s="118"/>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="118"/>
       <c r="B231" s="118"/>
       <c r="C231" s="118"/>
       <c r="D231" s="118"/>
       <c r="E231" s="118"/>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="118"/>
       <c r="B232" s="118"/>
       <c r="C232" s="118"/>
       <c r="D232" s="118"/>
       <c r="E232" s="118"/>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="118"/>
       <c r="B233" s="118"/>
       <c r="C233" s="118"/>
       <c r="D233" s="118"/>
       <c r="E233" s="118"/>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="118"/>
       <c r="B234" s="118"/>
       <c r="C234" s="118"/>
       <c r="D234" s="118"/>
       <c r="E234" s="118"/>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="118"/>
       <c r="B235" s="118"/>
       <c r="C235" s="118"/>
       <c r="D235" s="118"/>
       <c r="E235" s="118"/>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="118"/>
       <c r="B236" s="118"/>
       <c r="C236" s="118"/>
       <c r="D236" s="118"/>
       <c r="E236" s="118"/>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="118"/>
       <c r="B237" s="118"/>
       <c r="C237" s="118"/>
       <c r="D237" s="118"/>
       <c r="E237" s="118"/>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="118"/>
       <c r="B238" s="118"/>
       <c r="C238" s="118"/>
       <c r="D238" s="118"/>
       <c r="E238" s="118"/>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="118"/>
       <c r="B239" s="118"/>
       <c r="C239" s="118"/>
       <c r="D239" s="118"/>
       <c r="E239" s="118"/>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="118"/>
       <c r="B240" s="118"/>
       <c r="C240" s="118"/>
       <c r="D240" s="118"/>
       <c r="E240" s="118"/>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="118"/>
       <c r="B241" s="118"/>
       <c r="C241" s="118"/>
       <c r="D241" s="118"/>
       <c r="E241" s="118"/>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="118"/>
       <c r="B242" s="118"/>
       <c r="C242" s="118"/>
       <c r="D242" s="118"/>
       <c r="E242" s="118"/>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="118"/>
       <c r="B243" s="118"/>
       <c r="C243" s="118"/>
       <c r="D243" s="118"/>
       <c r="E243" s="118"/>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="118"/>
       <c r="B244" s="118"/>
       <c r="C244" s="118"/>
       <c r="D244" s="118"/>
       <c r="E244" s="118"/>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="118"/>
       <c r="B245" s="118"/>
       <c r="C245" s="118"/>
       <c r="D245" s="118"/>
       <c r="E245" s="118"/>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="118"/>
       <c r="B246" s="118"/>
       <c r="C246" s="118"/>
       <c r="D246" s="118"/>
       <c r="E246" s="118"/>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="118"/>
       <c r="B247" s="118"/>
       <c r="C247" s="118"/>
       <c r="D247" s="118"/>
       <c r="E247" s="118"/>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="118"/>
       <c r="B248" s="118"/>
       <c r="C248" s="118"/>
       <c r="D248" s="118"/>
       <c r="E248" s="118"/>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="118"/>
       <c r="B249" s="118"/>
       <c r="C249" s="118"/>
       <c r="D249" s="118"/>
       <c r="E249" s="118"/>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="118"/>
       <c r="B250" s="118"/>
       <c r="C250" s="118"/>
       <c r="D250" s="118"/>
       <c r="E250" s="118"/>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="118"/>
       <c r="B251" s="118"/>
       <c r="C251" s="118"/>
       <c r="D251" s="118"/>
       <c r="E251" s="118"/>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="118"/>
       <c r="B252" s="118"/>
       <c r="C252" s="118"/>
       <c r="D252" s="118"/>
       <c r="E252" s="118"/>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="118"/>
       <c r="B253" s="118"/>
       <c r="C253" s="118"/>
       <c r="D253" s="118"/>
       <c r="E253" s="118"/>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="118"/>
       <c r="B254" s="118"/>
       <c r="C254" s="118"/>
       <c r="D254" s="118"/>
       <c r="E254" s="118"/>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="118"/>
       <c r="B255" s="118"/>
       <c r="C255" s="118"/>
       <c r="D255" s="118"/>
       <c r="E255" s="118"/>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="118"/>
       <c r="B256" s="118"/>
       <c r="C256" s="118"/>
       <c r="D256" s="118"/>
       <c r="E256" s="118"/>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="118"/>
       <c r="B257" s="118"/>
       <c r="C257" s="118"/>
       <c r="D257" s="118"/>
       <c r="E257" s="118"/>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="118"/>
       <c r="B258" s="118"/>
       <c r="C258" s="118"/>
       <c r="D258" s="118"/>
       <c r="E258" s="118"/>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="118"/>
       <c r="B259" s="118"/>
       <c r="C259" s="118"/>
       <c r="D259" s="118"/>
       <c r="E259" s="118"/>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="118"/>
       <c r="B260" s="118"/>
       <c r="C260" s="118"/>
       <c r="D260" s="118"/>
       <c r="E260" s="118"/>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="118"/>
       <c r="B261" s="118"/>
       <c r="C261" s="118"/>
       <c r="D261" s="118"/>
       <c r="E261" s="118"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="118"/>
       <c r="B262" s="118"/>
       <c r="C262" s="118"/>
       <c r="D262" s="118"/>
       <c r="E262" s="118"/>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="118"/>
       <c r="B263" s="118"/>
       <c r="C263" s="118"/>
       <c r="D263" s="118"/>
       <c r="E263" s="118"/>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="118"/>
       <c r="B264" s="118"/>
       <c r="C264" s="118"/>
       <c r="D264" s="118"/>
       <c r="E264" s="118"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="118"/>
       <c r="B265" s="118"/>
       <c r="C265" s="118"/>
       <c r="D265" s="118"/>
       <c r="E265" s="118"/>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="118"/>
       <c r="B266" s="118"/>
       <c r="C266" s="118"/>
       <c r="D266" s="118"/>
       <c r="E266" s="118"/>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="118"/>
       <c r="B267" s="118"/>
       <c r="C267" s="118"/>
       <c r="D267" s="118"/>
       <c r="E267" s="118"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="118"/>
       <c r="B268" s="118"/>
       <c r="C268" s="118"/>
       <c r="D268" s="118"/>
       <c r="E268" s="118"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="118"/>
       <c r="B269" s="118"/>
       <c r="C269" s="118"/>
       <c r="D269" s="118"/>
       <c r="E269" s="118"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="118"/>
       <c r="B270" s="118"/>
       <c r="C270" s="118"/>
       <c r="D270" s="118"/>
       <c r="E270" s="118"/>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="118"/>
       <c r="B271" s="118"/>
       <c r="C271" s="118"/>
       <c r="D271" s="118"/>
       <c r="E271" s="118"/>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="118"/>
       <c r="B272" s="118"/>
       <c r="C272" s="118"/>
       <c r="D272" s="118"/>
       <c r="E272" s="118"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="118"/>
       <c r="B273" s="118"/>
       <c r="C273" s="118"/>
       <c r="D273" s="118"/>
       <c r="E273" s="118"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="118"/>
       <c r="B274" s="118"/>
       <c r="C274" s="118"/>
       <c r="D274" s="118"/>
       <c r="E274" s="118"/>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="118"/>
       <c r="B275" s="118"/>
       <c r="C275" s="118"/>
       <c r="D275" s="118"/>
       <c r="E275" s="118"/>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="118"/>
       <c r="B276" s="118"/>
       <c r="C276" s="118"/>
       <c r="D276" s="118"/>
       <c r="E276" s="118"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="118"/>
       <c r="B277" s="118"/>
       <c r="C277" s="118"/>
       <c r="D277" s="118"/>
       <c r="E277" s="118"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="118"/>
       <c r="B278" s="118"/>
       <c r="C278" s="118"/>
       <c r="D278" s="118"/>
       <c r="E278" s="118"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="118"/>
       <c r="B279" s="118"/>
       <c r="C279" s="118"/>
       <c r="D279" s="118"/>
       <c r="E279" s="118"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="118"/>
       <c r="B280" s="118"/>
       <c r="C280" s="118"/>
       <c r="D280" s="118"/>
       <c r="E280" s="118"/>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="118"/>
       <c r="B281" s="118"/>
       <c r="C281" s="118"/>
       <c r="D281" s="118"/>
       <c r="E281" s="118"/>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="118"/>
       <c r="B282" s="118"/>
       <c r="C282" s="118"/>
       <c r="D282" s="118"/>
       <c r="E282" s="118"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="118"/>
       <c r="B283" s="118"/>
       <c r="C283" s="118"/>
       <c r="D283" s="118"/>
       <c r="E283" s="118"/>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="118"/>
       <c r="B284" s="118"/>
       <c r="C284" s="118"/>
       <c r="D284" s="118"/>
       <c r="E284" s="118"/>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="118"/>
       <c r="B285" s="118"/>
       <c r="C285" s="118"/>
       <c r="D285" s="118"/>
       <c r="E285" s="118"/>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="118"/>
       <c r="B286" s="118"/>
       <c r="C286" s="118"/>
       <c r="D286" s="118"/>
       <c r="E286" s="118"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="118"/>
       <c r="B287" s="118"/>
       <c r="C287" s="118"/>
       <c r="D287" s="118"/>
       <c r="E287" s="118"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="118"/>
       <c r="B288" s="118"/>
       <c r="C288" s="118"/>
       <c r="D288" s="118"/>
       <c r="E288" s="118"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="118"/>
       <c r="B289" s="118"/>
       <c r="C289" s="118"/>
       <c r="D289" s="118"/>
       <c r="E289" s="118"/>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="118"/>
       <c r="B290" s="118"/>
       <c r="C290" s="118"/>
       <c r="D290" s="118"/>
       <c r="E290" s="118"/>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="118"/>
       <c r="B291" s="118"/>
       <c r="C291" s="118"/>
       <c r="D291" s="118"/>
       <c r="E291" s="118"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="118"/>
       <c r="B292" s="118"/>
       <c r="C292" s="118"/>
       <c r="D292" s="118"/>
       <c r="E292" s="118"/>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="118"/>
       <c r="B293" s="118"/>
       <c r="C293" s="118"/>
       <c r="D293" s="118"/>
       <c r="E293" s="118"/>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="118"/>
       <c r="B294" s="118"/>
       <c r="C294" s="118"/>
       <c r="D294" s="118"/>
       <c r="E294" s="118"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="118"/>
       <c r="B295" s="118"/>
       <c r="C295" s="118"/>
       <c r="D295" s="118"/>
       <c r="E295" s="118"/>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="118"/>
       <c r="B296" s="118"/>
       <c r="C296" s="118"/>
       <c r="D296" s="118"/>
       <c r="E296" s="118"/>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="118"/>
       <c r="B297" s="118"/>
       <c r="C297" s="118"/>
       <c r="D297" s="118"/>
       <c r="E297" s="118"/>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="118"/>
       <c r="B298" s="118"/>
       <c r="C298" s="118"/>
       <c r="D298" s="118"/>
       <c r="E298" s="118"/>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="118"/>
       <c r="B299" s="118"/>
       <c r="C299" s="118"/>
       <c r="D299" s="118"/>
       <c r="E299" s="118"/>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="118"/>
       <c r="B300" s="118"/>
       <c r="C300" s="118"/>
       <c r="D300" s="118"/>
       <c r="E300" s="118"/>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="118"/>
       <c r="B301" s="118"/>
       <c r="C301" s="118"/>
       <c r="D301" s="118"/>
       <c r="E301" s="118"/>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="118"/>
       <c r="B302" s="118"/>
       <c r="C302" s="118"/>
       <c r="D302" s="118"/>
       <c r="E302" s="118"/>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="118"/>
       <c r="B303" s="118"/>
       <c r="C303" s="118"/>
       <c r="D303" s="118"/>
       <c r="E303" s="118"/>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="118"/>
       <c r="B304" s="118"/>
       <c r="C304" s="118"/>
       <c r="D304" s="118"/>
       <c r="E304" s="118"/>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="118"/>
       <c r="B305" s="118"/>
       <c r="C305" s="118"/>
       <c r="D305" s="118"/>
       <c r="E305" s="118"/>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="118"/>
       <c r="B306" s="118"/>
       <c r="C306" s="118"/>
       <c r="D306" s="118"/>
       <c r="E306" s="118"/>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="118"/>
       <c r="B307" s="118"/>
       <c r="C307" s="118"/>
       <c r="D307" s="118"/>
       <c r="E307" s="118"/>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="118"/>
       <c r="B308" s="118"/>
       <c r="C308" s="118"/>
       <c r="D308" s="118"/>
       <c r="E308" s="118"/>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="118"/>
       <c r="B309" s="118"/>
       <c r="C309" s="118"/>
       <c r="D309" s="118"/>
       <c r="E309" s="118"/>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="118"/>
       <c r="B310" s="118"/>
       <c r="C310" s="118"/>
       <c r="D310" s="118"/>
       <c r="E310" s="118"/>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="118"/>
       <c r="B311" s="118"/>
       <c r="C311" s="118"/>
       <c r="D311" s="118"/>
       <c r="E311" s="118"/>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="118"/>
       <c r="B312" s="118"/>
       <c r="C312" s="118"/>
       <c r="D312" s="118"/>
       <c r="E312" s="118"/>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="118"/>
       <c r="B313" s="118"/>
       <c r="C313" s="118"/>
       <c r="D313" s="118"/>
       <c r="E313" s="118"/>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="118"/>
       <c r="B314" s="118"/>
       <c r="C314" s="118"/>
       <c r="D314" s="118"/>
       <c r="E314" s="118"/>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="118"/>
       <c r="B315" s="118"/>
       <c r="C315" s="118"/>
       <c r="D315" s="118"/>
       <c r="E315" s="118"/>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="118"/>
       <c r="B316" s="118"/>
       <c r="C316" s="118"/>
       <c r="D316" s="118"/>
       <c r="E316" s="118"/>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="118"/>
       <c r="B317" s="118"/>
       <c r="C317" s="118"/>
@@ -6106,6 +6115,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A4:A5"/>
@@ -6122,9 +6134,6 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6132,14 +6141,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S89"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -6150,13 +6159,13 @@
     <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="26.25">
-      <c r="A1" s="270" t="s">
+    <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="269" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="271"/>
-      <c r="D1" s="272"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="271"/>
       <c r="F1" s="9"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -6170,13 +6179,13 @@
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
     </row>
-    <row r="2" spans="1:19" ht="18">
-      <c r="A2" s="273" t="s">
+    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="272" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="273"/>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -6190,7 +6199,7 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="202" t="s">
         <v>12</v>
       </c>
@@ -6217,7 +6226,7 @@
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>16</v>
       </c>
@@ -6245,7 +6254,7 @@
       <c r="R4" s="40"/>
       <c r="S4" s="40"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -6269,7 +6278,7 @@
       <c r="R5" s="40"/>
       <c r="S5" s="40"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>149</v>
       </c>
@@ -6299,7 +6308,7 @@
       <c r="R6" s="40"/>
       <c r="S6" s="40"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>150</v>
       </c>
@@ -6329,14 +6338,14 @@
       <c r="R7" s="40"/>
       <c r="S7" s="40"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="233">
+      <c r="B8" s="232">
         <v>210000</v>
       </c>
-      <c r="C8" s="237">
+      <c r="C8" s="236">
         <v>500000</v>
       </c>
       <c r="D8" s="46">
@@ -6359,11 +6368,11 @@
       <c r="R8" s="40"/>
       <c r="S8" s="40"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="233">
+      <c r="B9" s="232">
         <v>175000</v>
       </c>
       <c r="C9" s="229">
@@ -6389,7 +6398,7 @@
       <c r="R9" s="40"/>
       <c r="S9" s="9"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>156</v>
       </c>
@@ -6417,14 +6426,14 @@
       <c r="R10" s="40"/>
       <c r="S10" s="9"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="234">
+      <c r="B11" s="233">
         <v>463000</v>
       </c>
-      <c r="C11" s="236">
+      <c r="C11" s="235">
         <v>500000</v>
       </c>
       <c r="D11" s="46">
@@ -6447,14 +6456,14 @@
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="234">
+        <v>160</v>
+      </c>
+      <c r="B12" s="233">
         <v>275000</v>
       </c>
-      <c r="C12" s="237">
+      <c r="C12" s="236">
         <v>200000</v>
       </c>
       <c r="D12" s="46">
@@ -6477,11 +6486,11 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" s="235">
+        <v>163</v>
+      </c>
+      <c r="B13" s="234">
         <v>208000</v>
       </c>
       <c r="C13" s="228">
@@ -6507,14 +6516,14 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" s="236">
+        <v>164</v>
+      </c>
+      <c r="B14" s="235">
         <v>315000</v>
       </c>
-      <c r="C14" s="236">
+      <c r="C14" s="235">
         <v>600000</v>
       </c>
       <c r="D14" s="46">
@@ -6537,9 +6546,9 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" s="226">
         <v>0</v>
@@ -6567,11 +6576,11 @@
       <c r="R15" s="9"/>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="246">
+        <v>169</v>
+      </c>
+      <c r="B16" s="245">
         <v>0</v>
       </c>
       <c r="C16" s="228">
@@ -6597,7 +6606,7 @@
       <c r="R16" s="9"/>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="57"/>
       <c r="B17" s="51"/>
       <c r="C17" s="47"/>
@@ -6621,7 +6630,7 @@
       <c r="R17" s="56"/>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
       <c r="B18" s="59"/>
       <c r="C18" s="199"/>
@@ -6645,7 +6654,7 @@
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="59"/>
       <c r="B19" s="59"/>
       <c r="C19" s="199"/>
@@ -6669,7 +6678,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="59"/>
       <c r="B20" s="59"/>
       <c r="C20" s="200"/>
@@ -6693,7 +6702,7 @@
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="50"/>
       <c r="B21" s="51"/>
       <c r="C21" s="47"/>
@@ -6717,7 +6726,7 @@
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="50"/>
       <c r="B22" s="51"/>
       <c r="C22" s="47"/>
@@ -6741,7 +6750,7 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="50"/>
       <c r="B23" s="51"/>
       <c r="C23" s="47"/>
@@ -6765,7 +6774,7 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="50"/>
       <c r="B24" s="51"/>
       <c r="C24" s="47"/>
@@ -6789,7 +6798,7 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="50"/>
       <c r="B25" s="51"/>
       <c r="C25" s="47"/>
@@ -6813,7 +6822,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="50"/>
       <c r="B26" s="51"/>
       <c r="C26" s="199"/>
@@ -6835,7 +6844,7 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="50"/>
       <c r="B27" s="51"/>
       <c r="C27" s="199"/>
@@ -6857,7 +6866,7 @@
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="50"/>
       <c r="B28" s="51"/>
       <c r="C28" s="47"/>
@@ -6879,7 +6888,7 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="50"/>
       <c r="B29" s="51"/>
       <c r="C29" s="200"/>
@@ -6901,7 +6910,7 @@
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="50"/>
       <c r="B30" s="51"/>
       <c r="C30" s="47"/>
@@ -6923,7 +6932,7 @@
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="50"/>
       <c r="B31" s="70"/>
       <c r="C31" s="47"/>
@@ -6945,7 +6954,7 @@
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="50"/>
       <c r="B32" s="70"/>
       <c r="C32" s="200"/>
@@ -6967,7 +6976,7 @@
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="50"/>
       <c r="B33" s="70"/>
       <c r="C33" s="200"/>
@@ -6989,7 +6998,7 @@
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="50"/>
       <c r="B34" s="70"/>
       <c r="C34" s="71"/>
@@ -7011,7 +7020,7 @@
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="50"/>
       <c r="B35" s="72"/>
       <c r="C35" s="71"/>
@@ -7033,7 +7042,7 @@
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="50"/>
       <c r="B36" s="51"/>
       <c r="C36" s="73"/>
@@ -7055,7 +7064,7 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="50"/>
       <c r="B37" s="51"/>
       <c r="C37" s="47"/>
@@ -7077,7 +7086,7 @@
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="50"/>
       <c r="B38" s="51"/>
       <c r="C38" s="47"/>
@@ -7099,7 +7108,7 @@
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="50"/>
       <c r="B39" s="51"/>
       <c r="C39" s="47"/>
@@ -7121,7 +7130,7 @@
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="50"/>
       <c r="B40" s="51"/>
       <c r="C40" s="47"/>
@@ -7143,7 +7152,7 @@
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="50"/>
       <c r="B41" s="51"/>
       <c r="C41" s="47"/>
@@ -7165,7 +7174,7 @@
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="50"/>
       <c r="B42" s="62"/>
       <c r="C42" s="75"/>
@@ -7187,7 +7196,7 @@
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
       <c r="B43" s="51"/>
       <c r="C43" s="47"/>
@@ -7209,7 +7218,7 @@
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
       <c r="B44" s="62"/>
       <c r="C44" s="76"/>
@@ -7231,7 +7240,7 @@
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
       <c r="B45" s="51"/>
       <c r="C45" s="47"/>
@@ -7253,7 +7262,7 @@
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="50"/>
       <c r="B46" s="70"/>
       <c r="C46" s="47"/>
@@ -7275,7 +7284,7 @@
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="50"/>
       <c r="B47" s="51"/>
       <c r="C47" s="47"/>
@@ -7297,7 +7306,7 @@
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="50"/>
       <c r="B48" s="51"/>
       <c r="C48" s="47"/>
@@ -7319,7 +7328,7 @@
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="50"/>
       <c r="B49" s="51"/>
       <c r="C49" s="47"/>
@@ -7341,7 +7350,7 @@
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="78"/>
       <c r="B50" s="51"/>
       <c r="C50" s="47"/>
@@ -7363,7 +7372,7 @@
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="78"/>
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
@@ -7385,7 +7394,7 @@
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="78"/>
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
@@ -7407,7 +7416,7 @@
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="78"/>
       <c r="B53" s="47"/>
       <c r="C53" s="47"/>
@@ -7429,7 +7438,7 @@
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="78"/>
       <c r="B54" s="47"/>
       <c r="C54" s="47"/>
@@ -7451,7 +7460,7 @@
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="78"/>
       <c r="B55" s="47"/>
       <c r="C55" s="47"/>
@@ -7473,7 +7482,7 @@
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="78"/>
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
@@ -7495,7 +7504,7 @@
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="78"/>
       <c r="B57" s="51"/>
       <c r="C57" s="47"/>
@@ -7517,7 +7526,7 @@
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="78"/>
       <c r="B58" s="51"/>
       <c r="C58" s="47"/>
@@ -7539,7 +7548,7 @@
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="78"/>
       <c r="B59" s="51"/>
       <c r="C59" s="47"/>
@@ -7561,7 +7570,7 @@
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="78"/>
       <c r="B60" s="62"/>
       <c r="C60" s="47"/>
@@ -7583,7 +7592,7 @@
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="78"/>
       <c r="B61" s="62"/>
       <c r="C61" s="47"/>
@@ -7605,7 +7614,7 @@
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="78"/>
       <c r="B62" s="51"/>
       <c r="C62" s="47"/>
@@ -7627,7 +7636,7 @@
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="78"/>
       <c r="B63" s="51"/>
       <c r="C63" s="47"/>
@@ -7649,7 +7658,7 @@
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="78"/>
       <c r="B64" s="51"/>
       <c r="C64" s="47"/>
@@ -7671,7 +7680,7 @@
       <c r="R64" s="9"/>
       <c r="S64" s="9"/>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="78"/>
       <c r="B65" s="51"/>
       <c r="C65" s="47"/>
@@ -7693,7 +7702,7 @@
       <c r="R65" s="9"/>
       <c r="S65" s="9"/>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="78"/>
       <c r="B66" s="51"/>
       <c r="C66" s="47"/>
@@ -7715,7 +7724,7 @@
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="78"/>
       <c r="B67" s="51"/>
       <c r="C67" s="47"/>
@@ -7737,7 +7746,7 @@
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="78"/>
       <c r="B68" s="51"/>
       <c r="C68" s="47"/>
@@ -7759,7 +7768,7 @@
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="78"/>
       <c r="B69" s="51"/>
       <c r="C69" s="47"/>
@@ -7781,7 +7790,7 @@
       <c r="R69" s="9"/>
       <c r="S69" s="9"/>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="78"/>
       <c r="B70" s="47"/>
       <c r="C70" s="47"/>
@@ -7803,7 +7812,7 @@
       <c r="R70" s="9"/>
       <c r="S70" s="9"/>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="78"/>
       <c r="B71" s="51"/>
       <c r="C71" s="47"/>
@@ -7825,7 +7834,7 @@
       <c r="R71" s="9"/>
       <c r="S71" s="9"/>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="78"/>
       <c r="B72" s="51"/>
       <c r="C72" s="47"/>
@@ -7847,7 +7856,7 @@
       <c r="R72" s="9"/>
       <c r="S72" s="9"/>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="78"/>
       <c r="B73" s="51"/>
       <c r="C73" s="47"/>
@@ -7869,7 +7878,7 @@
       <c r="R73" s="9"/>
       <c r="S73" s="9"/>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="78"/>
       <c r="B74" s="51"/>
       <c r="C74" s="47"/>
@@ -7891,7 +7900,7 @@
       <c r="R74" s="9"/>
       <c r="S74" s="9"/>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="78"/>
       <c r="B75" s="51"/>
       <c r="C75" s="47"/>
@@ -7913,7 +7922,7 @@
       <c r="R75" s="9"/>
       <c r="S75" s="9"/>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="78"/>
       <c r="B76" s="51"/>
       <c r="C76" s="47"/>
@@ -7935,7 +7944,7 @@
       <c r="R76" s="9"/>
       <c r="S76" s="9"/>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="78"/>
       <c r="B77" s="51"/>
       <c r="C77" s="47"/>
@@ -7957,7 +7966,7 @@
       <c r="R77" s="9"/>
       <c r="S77" s="9"/>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="78"/>
       <c r="B78" s="51"/>
       <c r="C78" s="47"/>
@@ -7979,7 +7988,7 @@
       <c r="R78" s="9"/>
       <c r="S78" s="9"/>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="78"/>
       <c r="B79" s="51"/>
       <c r="C79" s="47"/>
@@ -8001,7 +8010,7 @@
       <c r="R79" s="9"/>
       <c r="S79" s="9"/>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="78"/>
       <c r="B80" s="51"/>
       <c r="C80" s="47"/>
@@ -8023,7 +8032,7 @@
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="78"/>
       <c r="B81" s="51"/>
       <c r="C81" s="47"/>
@@ -8045,7 +8054,7 @@
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="78"/>
       <c r="B82" s="51"/>
       <c r="C82" s="47"/>
@@ -8067,7 +8076,7 @@
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="79"/>
       <c r="B83" s="51">
         <f>SUM(B4:B72)</f>
@@ -8093,7 +8102,7 @@
       <c r="R83" s="9"/>
       <c r="S83" s="9"/>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D84" s="81"/>
       <c r="I84" s="8"/>
       <c r="J84" s="9"/>
@@ -8105,11 +8114,11 @@
       <c r="R84" s="9"/>
       <c r="S84" s="9"/>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I85" s="8"/>
       <c r="J85" s="9"/>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S89">
         <v>3381</v>
       </c>
@@ -8124,320 +8133,320 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="274" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="273" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="275"/>
-      <c r="C1" s="276"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="277"/>
-      <c r="B2" s="278"/>
-      <c r="C2" s="279"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="280" t="s">
+      <c r="B1" s="274"/>
+      <c r="C1" s="275"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="276"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="278"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="279" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="281"/>
-      <c r="C3" s="282"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="283"/>
-      <c r="B4" s="284"/>
-      <c r="C4" s="285"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75">
-      <c r="A5" s="239" t="s">
+      <c r="B3" s="280"/>
+      <c r="C3" s="281"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="282"/>
+      <c r="B4" s="283"/>
+      <c r="C4" s="284"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="238" t="s">
         <v>139</v>
       </c>
       <c r="B5" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="240" t="s">
+      <c r="C5" s="239" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75">
-      <c r="A6" s="241" t="s">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="240" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="198">
         <v>17924</v>
       </c>
-      <c r="C6" s="242" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75">
-      <c r="A7" s="241" t="s">
+      <c r="C6" s="241" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="240" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="198">
         <v>12696</v>
       </c>
-      <c r="C7" s="242" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75">
-      <c r="A8" s="241" t="s">
+      <c r="C7" s="241" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="240" t="s">
         <v>153</v>
       </c>
       <c r="B8" s="198">
         <v>500</v>
       </c>
-      <c r="C8" s="242" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75">
-      <c r="A9" s="241" t="s">
+      <c r="C8" s="241" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="240" t="s">
         <v>112</v>
       </c>
       <c r="B9" s="198"/>
-      <c r="C9" s="242" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75">
-      <c r="A10" s="241" t="s">
+      <c r="C9" s="241" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="240" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="198">
         <v>8111</v>
       </c>
-      <c r="C10" s="242" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75">
-      <c r="A11" s="241" t="s">
-        <v>173</v>
+      <c r="C10" s="241" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="240" t="s">
+        <v>172</v>
       </c>
       <c r="B11" s="198">
         <v>900</v>
       </c>
-      <c r="C11" s="242" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75">
-      <c r="A12" s="241" t="s">
+      <c r="C11" s="241" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="240" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="198">
         <v>718</v>
       </c>
-      <c r="C12" s="242" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75">
-      <c r="A13" s="241" t="s">
+      <c r="C12" s="241" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="240" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="198">
         <v>862</v>
       </c>
-      <c r="C13" s="242" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75">
-      <c r="A14" s="241" t="s">
+      <c r="C13" s="241" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="240" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="198">
         <v>2617</v>
       </c>
-      <c r="C14" s="242" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75">
-      <c r="A15" s="241" t="s">
+      <c r="C14" s="241" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="240" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="198">
         <v>3398</v>
       </c>
-      <c r="C15" s="242" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75">
-      <c r="A16" s="241" t="s">
+      <c r="C15" s="241" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="240" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="198">
         <v>50</v>
       </c>
-      <c r="C16" s="242" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="241" t="s">
+      <c r="C16" s="241" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="240" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="198">
         <v>445</v>
       </c>
-      <c r="C17" s="242" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="289" t="s">
-        <v>169</v>
-      </c>
-      <c r="F17" s="290"/>
-      <c r="G17" s="288"/>
-      <c r="H17" s="288"/>
-      <c r="I17" s="288"/>
-      <c r="J17" s="288"/>
-      <c r="K17" s="288"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="241" t="s">
+      <c r="C17" s="241" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="288" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="289"/>
+      <c r="G17" s="287"/>
+      <c r="H17" s="287"/>
+      <c r="I17" s="287"/>
+      <c r="J17" s="287"/>
+      <c r="K17" s="287"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="240" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="198">
         <v>855</v>
       </c>
-      <c r="C18" s="242" t="s">
+      <c r="C18" s="241" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="291"/>
-      <c r="F18" s="292"/>
-      <c r="G18" s="288"/>
-      <c r="H18" s="288"/>
-      <c r="I18" s="288"/>
-      <c r="J18" s="288"/>
-      <c r="K18" s="288"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="241" t="s">
+      <c r="E18" s="290"/>
+      <c r="F18" s="291"/>
+      <c r="G18" s="287"/>
+      <c r="H18" s="287"/>
+      <c r="I18" s="287"/>
+      <c r="J18" s="287"/>
+      <c r="K18" s="287"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="240" t="s">
         <v>146</v>
       </c>
       <c r="B19" s="198">
         <v>250</v>
       </c>
-      <c r="C19" s="242" t="s">
+      <c r="C19" s="241" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="241" t="s">
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="240" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="198">
         <v>200</v>
       </c>
-      <c r="C20" s="242" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="241" t="s">
+      <c r="C20" s="241" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="240" t="s">
         <v>140</v>
       </c>
       <c r="B21" s="198">
         <v>5750</v>
       </c>
-      <c r="C21" s="242" t="s">
+      <c r="C21" s="241" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1">
-      <c r="A22" s="241" t="s">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="240" t="s">
         <v>157</v>
       </c>
       <c r="B22" s="198">
         <v>3700</v>
       </c>
-      <c r="C22" s="242" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="241" t="s">
+      <c r="C22" s="241" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="240" t="s">
         <v>141</v>
       </c>
       <c r="B23" s="198">
         <v>1100</v>
       </c>
-      <c r="C23" s="242" t="s">
+      <c r="C23" s="241" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="241" t="s">
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="240" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="198">
         <v>869</v>
       </c>
-      <c r="C24" s="242" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75">
-      <c r="A25" s="241" t="s">
+      <c r="C24" s="241" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="240" t="s">
         <v>51</v>
       </c>
       <c r="B25" s="198">
         <v>775</v>
       </c>
-      <c r="C25" s="242" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75">
-      <c r="A26" s="241" t="s">
+      <c r="C25" s="241" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="240" t="s">
         <v>155</v>
       </c>
       <c r="B26" s="198">
         <v>5000</v>
       </c>
-      <c r="C26" s="242" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A27" s="243" t="s">
-        <v>174</v>
-      </c>
-      <c r="B27" s="244">
+      <c r="C26" s="241" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="242" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="243">
         <v>518</v>
       </c>
-      <c r="C27" s="245" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="23.25">
-      <c r="A28" s="238" t="s">
+      <c r="C27" s="244" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A28" s="237" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="286">
+      <c r="B28" s="285">
         <f>SUM(B6:B27)</f>
         <v>67238</v>
       </c>
-      <c r="C28" s="287"/>
+      <c r="C28" s="286"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8458,14 +8467,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="2" customWidth="1"/>
@@ -8482,28 +8491,28 @@
     <col min="13" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="296" t="s">
+    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="295" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="297"/>
-      <c r="E1" s="298"/>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="297"/>
       <c r="G1" s="22"/>
       <c r="H1" s="137"/>
       <c r="I1" s="137"/>
     </row>
-    <row r="2" spans="1:12" ht="21.75">
-      <c r="A2" s="299" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="300"/>
-      <c r="C2" s="300"/>
-      <c r="D2" s="300"/>
-      <c r="E2" s="301"/>
-    </row>
-    <row r="3" spans="1:12" ht="23.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="2" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="298" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="299"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="300"/>
+    </row>
+    <row r="3" spans="1:12" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
@@ -8519,20 +8528,20 @@
       </c>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" spans="1:12" ht="22.5">
+    <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="82"/>
       <c r="B4" s="20"/>
       <c r="C4" s="38"/>
       <c r="D4" s="19"/>
       <c r="E4" s="83"/>
       <c r="F4" s="29"/>
-      <c r="J4" s="302" t="s">
+      <c r="J4" s="301" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="303"/>
-      <c r="L4" s="304"/>
-    </row>
-    <row r="5" spans="1:12" ht="22.5">
+      <c r="K4" s="302"/>
+      <c r="L4" s="303"/>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>8</v>
       </c>
@@ -8557,7 +8566,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="21.75">
+    <row r="6" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A6" s="84" t="s">
         <v>117</v>
       </c>
@@ -8582,7 +8591,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="21.75">
+    <row r="7" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
       <c r="B7" s="31"/>
       <c r="C7" s="38"/>
@@ -8603,7 +8612,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="21.75">
+    <row r="8" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A8" s="84" t="s">
         <v>118</v>
       </c>
@@ -8628,7 +8637,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="22.5">
+    <row r="9" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="84" t="s">
         <v>9</v>
       </c>
@@ -8653,7 +8662,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="21.75">
+    <row r="10" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A10" s="84"/>
       <c r="B10" s="32"/>
       <c r="C10" s="38"/>
@@ -8670,7 +8679,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="21.75">
+    <row r="11" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A11" s="88" t="s">
         <v>151</v>
       </c>
@@ -8701,7 +8710,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="21.75">
+    <row r="12" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A12" s="88" t="s">
         <v>47</v>
       </c>
@@ -8725,7 +8734,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="21.75">
+    <row r="13" spans="1:12" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A13" s="84"/>
       <c r="B13" s="31"/>
       <c r="C13" s="38"/>
@@ -8742,7 +8751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="26" customFormat="1" ht="21.75">
+    <row r="14" spans="1:12" s="26" customFormat="1" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A14" s="84"/>
       <c r="B14" s="31"/>
       <c r="C14" s="38"/>
@@ -8750,7 +8759,7 @@
       <c r="E14" s="89"/>
       <c r="F14" s="25"/>
       <c r="J14" s="163" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K14" s="164" t="s">
         <v>148</v>
@@ -8759,7 +8768,7 @@
         <v>5547</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="21.75">
+    <row r="15" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A15" s="84" t="s">
         <v>119</v>
       </c>
@@ -8777,7 +8786,7 @@
       </c>
       <c r="F15" s="23"/>
       <c r="J15" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K15" s="134" t="s">
         <v>121</v>
@@ -8786,7 +8795,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="22.5" thickBot="1">
+    <row r="16" spans="1:12" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="90"/>
       <c r="B16" s="91"/>
       <c r="C16" s="92"/>
@@ -8802,55 +8811,55 @@
         <v>18426</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="23.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A17" s="293"/>
-      <c r="B17" s="294"/>
-      <c r="C17" s="294"/>
-      <c r="D17" s="294"/>
-      <c r="E17" s="295"/>
+    <row r="17" spans="1:9" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="292"/>
+      <c r="B17" s="293"/>
+      <c r="C17" s="293"/>
+      <c r="D17" s="293"/>
+      <c r="E17" s="294"/>
       <c r="F17" s="27"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="28"/>
       <c r="D18" s="13"/>
       <c r="F18" s="27"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="28"/>
       <c r="F19" s="27"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="28"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
       <c r="F20" s="27"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C21" s="28"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
       <c r="F21" s="27"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="8"/>
       <c r="C25" s="28"/>
@@ -8860,50 +8869,50 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="8"/>
       <c r="C26" s="28"/>
       <c r="D26" s="7"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" s="28"/>
       <c r="D27" s="12"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" s="28"/>
       <c r="D28" s="7"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" s="28"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" s="28"/>
       <c r="D30" s="7"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="34" ht="20.100000000000001" customHeight="1"/>
-    <row r="35" ht="20.100000000000001" customHeight="1"/>
-    <row r="36" ht="20.100000000000001" customHeight="1"/>
-    <row r="37" ht="20.100000000000001" customHeight="1"/>
-    <row r="38" ht="20.100000000000001" customHeight="1"/>
-    <row r="39" ht="20.100000000000001" customHeight="1"/>
-    <row r="40" ht="20.100000000000001" customHeight="1"/>
-    <row r="41" ht="20.100000000000001" customHeight="1"/>
-    <row r="43" ht="21" customHeight="1"/>
-    <row r="44" ht="21" customHeight="1"/>
-    <row r="45" ht="20.100000000000001" customHeight="1"/>
-    <row r="46" ht="20.100000000000001" customHeight="1"/>
-    <row r="47" ht="20.100000000000001" customHeight="1"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A17:E17"/>
@@ -8918,14 +8927,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="119" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="119" customWidth="1"/>
@@ -8945,112 +8954,112 @@
     <col min="18" max="16384" width="9.140625" style="119"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18" customHeight="1">
-      <c r="A1" s="308" t="s">
+    <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="307" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="308"/>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
-      <c r="F1" s="308"/>
-      <c r="G1" s="308"/>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="J1" s="308"/>
-      <c r="K1" s="308"/>
-      <c r="L1" s="308"/>
-      <c r="M1" s="308"/>
-      <c r="N1" s="308"/>
-      <c r="O1" s="308"/>
-      <c r="P1" s="308"/>
-      <c r="Q1" s="308"/>
-    </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="308"/>
-      <c r="B2" s="308"/>
-      <c r="C2" s="308"/>
-      <c r="D2" s="308"/>
-      <c r="E2" s="308"/>
-      <c r="F2" s="308"/>
-      <c r="G2" s="308"/>
-      <c r="H2" s="308"/>
-      <c r="I2" s="308"/>
-      <c r="J2" s="308"/>
-      <c r="K2" s="308"/>
-      <c r="L2" s="308"/>
-      <c r="M2" s="308"/>
-      <c r="N2" s="308"/>
-      <c r="O2" s="308"/>
-      <c r="P2" s="308"/>
-      <c r="Q2" s="308"/>
-    </row>
-    <row r="3" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="309" t="s">
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="307"/>
+      <c r="M1" s="307"/>
+      <c r="N1" s="307"/>
+      <c r="O1" s="307"/>
+      <c r="P1" s="307"/>
+      <c r="Q1" s="307"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="307"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
+      <c r="F2" s="307"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="307"/>
+      <c r="J2" s="307"/>
+      <c r="K2" s="307"/>
+      <c r="L2" s="307"/>
+      <c r="M2" s="307"/>
+      <c r="N2" s="307"/>
+      <c r="O2" s="307"/>
+      <c r="P2" s="307"/>
+      <c r="Q2" s="307"/>
+    </row>
+    <row r="3" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="308" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="309"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="309"/>
-      <c r="E3" s="309"/>
-      <c r="F3" s="309"/>
-      <c r="G3" s="309"/>
-      <c r="H3" s="309"/>
-      <c r="I3" s="309"/>
-      <c r="J3" s="309"/>
-      <c r="K3" s="309"/>
-      <c r="L3" s="309"/>
-      <c r="M3" s="309"/>
-      <c r="N3" s="309"/>
-      <c r="O3" s="309"/>
-      <c r="P3" s="309"/>
-      <c r="Q3" s="309"/>
-    </row>
-    <row r="4" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="310" t="s">
+      <c r="B3" s="308"/>
+      <c r="C3" s="308"/>
+      <c r="D3" s="308"/>
+      <c r="E3" s="308"/>
+      <c r="F3" s="308"/>
+      <c r="G3" s="308"/>
+      <c r="H3" s="308"/>
+      <c r="I3" s="308"/>
+      <c r="J3" s="308"/>
+      <c r="K3" s="308"/>
+      <c r="L3" s="308"/>
+      <c r="M3" s="308"/>
+      <c r="N3" s="308"/>
+      <c r="O3" s="308"/>
+      <c r="P3" s="308"/>
+      <c r="Q3" s="308"/>
+    </row>
+    <row r="4" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="309" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="310"/>
-      <c r="C4" s="310"/>
-      <c r="D4" s="310"/>
-      <c r="E4" s="310"/>
-      <c r="F4" s="310"/>
-      <c r="G4" s="310"/>
-      <c r="H4" s="310"/>
-      <c r="I4" s="310"/>
-      <c r="J4" s="310"/>
-      <c r="K4" s="310"/>
-      <c r="L4" s="310"/>
-      <c r="M4" s="310"/>
-      <c r="N4" s="310"/>
-      <c r="O4" s="310"/>
-      <c r="P4" s="310"/>
-      <c r="Q4" s="310"/>
-    </row>
-    <row r="5" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="311" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="312"/>
-      <c r="C5" s="311" t="s">
+      <c r="B4" s="309"/>
+      <c r="C4" s="309"/>
+      <c r="D4" s="309"/>
+      <c r="E4" s="309"/>
+      <c r="F4" s="309"/>
+      <c r="G4" s="309"/>
+      <c r="H4" s="309"/>
+      <c r="I4" s="309"/>
+      <c r="J4" s="309"/>
+      <c r="K4" s="309"/>
+      <c r="L4" s="309"/>
+      <c r="M4" s="309"/>
+      <c r="N4" s="309"/>
+      <c r="O4" s="309"/>
+      <c r="P4" s="309"/>
+      <c r="Q4" s="309"/>
+    </row>
+    <row r="5" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="310" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="311"/>
+      <c r="C5" s="310" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="313"/>
-      <c r="E5" s="313"/>
-      <c r="F5" s="313"/>
-      <c r="G5" s="313"/>
-      <c r="H5" s="313"/>
-      <c r="I5" s="313"/>
-      <c r="J5" s="313"/>
-      <c r="K5" s="313"/>
-      <c r="L5" s="313"/>
-      <c r="M5" s="313"/>
-      <c r="N5" s="313"/>
-      <c r="O5" s="313"/>
-      <c r="P5" s="312"/>
+      <c r="D5" s="312"/>
+      <c r="E5" s="312"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="312"/>
+      <c r="H5" s="312"/>
+      <c r="I5" s="312"/>
+      <c r="J5" s="312"/>
+      <c r="K5" s="312"/>
+      <c r="L5" s="312"/>
+      <c r="M5" s="312"/>
+      <c r="N5" s="312"/>
+      <c r="O5" s="312"/>
+      <c r="P5" s="311"/>
       <c r="Q5" s="140"/>
     </row>
-    <row r="6" spans="1:20" s="120" customFormat="1" ht="18" customHeight="1">
+    <row r="6" spans="1:20" s="120" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="141" t="s">
         <v>80</v>
       </c>
@@ -9103,7 +9112,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18" customHeight="1">
+    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="121">
         <v>1</v>
       </c>
@@ -9128,7 +9137,7 @@
       <c r="P7" s="182"/>
       <c r="Q7" s="174"/>
     </row>
-    <row r="8" spans="1:20" ht="18" customHeight="1">
+    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="121">
         <v>2</v>
       </c>
@@ -9153,7 +9162,7 @@
       <c r="P8" s="182"/>
       <c r="Q8" s="174"/>
     </row>
-    <row r="9" spans="1:20" ht="18" customHeight="1">
+    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="144">
         <v>3</v>
       </c>
@@ -9178,7 +9187,7 @@
       <c r="P9" s="182"/>
       <c r="Q9" s="174"/>
     </row>
-    <row r="10" spans="1:20" ht="18" customHeight="1">
+    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="121">
         <v>4</v>
       </c>
@@ -9202,9 +9211,9 @@
       <c r="O10" s="182"/>
       <c r="P10" s="182"/>
       <c r="Q10" s="183"/>
-      <c r="T10" s="232"/>
-    </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1">
+      <c r="T10" s="231"/>
+    </row>
+    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="121">
         <v>5</v>
       </c>
@@ -9229,7 +9238,7 @@
       <c r="P11" s="182"/>
       <c r="Q11" s="183"/>
     </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1">
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="144">
         <v>6</v>
       </c>
@@ -9254,7 +9263,7 @@
       <c r="P12" s="182"/>
       <c r="Q12" s="183"/>
     </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1">
+    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="121">
         <v>7</v>
       </c>
@@ -9279,7 +9288,7 @@
       <c r="P13" s="182"/>
       <c r="Q13" s="183"/>
     </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1">
+    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="121">
         <v>8</v>
       </c>
@@ -9304,7 +9313,7 @@
       <c r="P14" s="182"/>
       <c r="Q14" s="183"/>
     </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1">
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="144">
         <v>9</v>
       </c>
@@ -9329,7 +9338,7 @@
       <c r="P15" s="182"/>
       <c r="Q15" s="183"/>
     </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1">
+    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="121">
         <v>10</v>
       </c>
@@ -9354,7 +9363,7 @@
       <c r="P16" s="182"/>
       <c r="Q16" s="183"/>
     </row>
-    <row r="17" spans="1:17" ht="18" customHeight="1">
+    <row r="17" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="121">
         <v>11</v>
       </c>
@@ -9379,7 +9388,7 @@
       <c r="P17" s="182"/>
       <c r="Q17" s="183"/>
     </row>
-    <row r="18" spans="1:17" ht="18" customHeight="1">
+    <row r="18" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="144">
         <v>12</v>
       </c>
@@ -9404,7 +9413,7 @@
       <c r="P18" s="182"/>
       <c r="Q18" s="183"/>
     </row>
-    <row r="19" spans="1:17" ht="18" customHeight="1">
+    <row r="19" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="121">
         <v>13</v>
       </c>
@@ -9429,7 +9438,7 @@
       <c r="P19" s="182"/>
       <c r="Q19" s="183"/>
     </row>
-    <row r="20" spans="1:17" ht="18" customHeight="1">
+    <row r="20" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="121">
         <v>14</v>
       </c>
@@ -9454,7 +9463,7 @@
       <c r="P20" s="182"/>
       <c r="Q20" s="183"/>
     </row>
-    <row r="21" spans="1:17" ht="18" customHeight="1">
+    <row r="21" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="144">
         <v>15</v>
       </c>
@@ -9479,7 +9488,7 @@
       <c r="P21" s="182"/>
       <c r="Q21" s="183"/>
     </row>
-    <row r="22" spans="1:17" ht="18" customHeight="1">
+    <row r="22" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="121">
         <v>16</v>
       </c>
@@ -9504,7 +9513,7 @@
       <c r="P22" s="182"/>
       <c r="Q22" s="183"/>
     </row>
-    <row r="23" spans="1:17" ht="18" customHeight="1">
+    <row r="23" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="121">
         <v>17</v>
       </c>
@@ -9529,7 +9538,7 @@
       <c r="P23" s="182"/>
       <c r="Q23" s="183"/>
     </row>
-    <row r="24" spans="1:17" ht="18" customHeight="1">
+    <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="144">
         <v>18</v>
       </c>
@@ -9554,7 +9563,7 @@
       <c r="P24" s="182"/>
       <c r="Q24" s="183"/>
     </row>
-    <row r="25" spans="1:17" ht="18" customHeight="1">
+    <row r="25" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="121">
         <v>19</v>
       </c>
@@ -9579,7 +9588,7 @@
       <c r="P25" s="182"/>
       <c r="Q25" s="183"/>
     </row>
-    <row r="26" spans="1:17" ht="18" customHeight="1">
+    <row r="26" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="121">
         <v>20</v>
       </c>
@@ -9604,7 +9613,7 @@
       <c r="P26" s="182"/>
       <c r="Q26" s="183"/>
     </row>
-    <row r="27" spans="1:17" ht="18" customHeight="1" thickBot="1">
+    <row r="27" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="144">
         <v>21</v>
       </c>
@@ -9629,12 +9638,12 @@
       <c r="P27" s="182"/>
       <c r="Q27" s="183"/>
     </row>
-    <row r="28" spans="1:17" s="129" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="305" t="s">
+    <row r="28" spans="1:17" s="129" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="304" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="306"/>
-      <c r="C28" s="307"/>
+      <c r="B28" s="305"/>
+      <c r="C28" s="306"/>
       <c r="D28" s="148">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -9689,7 +9698,7 @@
       </c>
       <c r="Q28" s="149"/>
     </row>
-    <row r="29" spans="1:17" ht="15.75">
+    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="63"/>
       <c r="B29" s="63"/>
       <c r="C29" s="63"/>
@@ -9699,7 +9708,7 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
     </row>
-    <row r="30" spans="1:17" ht="15.75">
+    <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="63"/>
       <c r="B30" s="63"/>
       <c r="C30" s="54"/>
@@ -9711,7 +9720,7 @@
       <c r="J30" s="63"/>
       <c r="K30" s="63"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="63"/>
       <c r="B31" s="63"/>
       <c r="C31" s="54"/>
@@ -9720,7 +9729,7 @@
       <c r="G31" s="63"/>
       <c r="I31" s="63"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
       <c r="B32" s="63"/>
       <c r="C32" s="54"/>
@@ -9729,7 +9738,7 @@
       <c r="G32" s="63"/>
       <c r="I32" s="63"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
       <c r="B33" s="63"/>
       <c r="C33" s="54"/>
@@ -9738,7 +9747,7 @@
       <c r="G33" s="63"/>
       <c r="I33" s="63"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
       <c r="B34" s="63"/>
       <c r="C34" s="54"/>
@@ -9747,589 +9756,589 @@
       <c r="G34" s="63"/>
       <c r="I34" s="63"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
       <c r="B35" s="63"/>
       <c r="C35" s="54"/>
       <c r="D35" s="54"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="131"/>
       <c r="B36" s="131"/>
       <c r="C36" s="54"/>
       <c r="D36" s="54"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="63"/>
       <c r="B37" s="63"/>
       <c r="C37" s="54"/>
       <c r="D37" s="54"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="63"/>
       <c r="B38" s="63"/>
       <c r="C38" s="54"/>
       <c r="D38" s="54"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="63"/>
       <c r="B39" s="63"/>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="63"/>
       <c r="B40" s="63"/>
       <c r="C40" s="54"/>
       <c r="D40" s="54"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="63"/>
       <c r="B41" s="63"/>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="63"/>
       <c r="B42" s="63"/>
       <c r="C42" s="63"/>
       <c r="D42" s="63"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="63"/>
       <c r="B43" s="63"/>
       <c r="C43" s="63"/>
       <c r="D43" s="63"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
       <c r="B44" s="63"/>
       <c r="C44" s="63"/>
       <c r="D44" s="63"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="63"/>
       <c r="B45" s="63"/>
       <c r="C45" s="63"/>
       <c r="D45" s="63"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="63"/>
       <c r="B46" s="63"/>
       <c r="C46" s="63"/>
       <c r="D46" s="63"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="63"/>
       <c r="B47" s="63"/>
       <c r="C47" s="63"/>
       <c r="D47" s="63"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="63"/>
       <c r="B48" s="63"/>
       <c r="C48" s="63"/>
       <c r="D48" s="63"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="63"/>
       <c r="B49" s="63"/>
       <c r="C49" s="63"/>
       <c r="D49" s="63"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="63"/>
       <c r="B50" s="63"/>
       <c r="C50" s="63"/>
       <c r="D50" s="63"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="63"/>
       <c r="B51" s="63"/>
       <c r="C51" s="63"/>
       <c r="D51" s="63"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="63"/>
       <c r="B52" s="63"/>
       <c r="C52" s="63"/>
       <c r="D52" s="63"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="63"/>
       <c r="B53" s="63"/>
       <c r="C53" s="63"/>
       <c r="D53" s="63"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="63"/>
       <c r="B54" s="63"/>
       <c r="C54" s="63"/>
       <c r="D54" s="63"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="63"/>
       <c r="B55" s="63"/>
       <c r="C55" s="63"/>
       <c r="D55" s="63"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="63"/>
       <c r="B56" s="63"/>
       <c r="C56" s="63"/>
       <c r="D56" s="63"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="63"/>
       <c r="B57" s="63"/>
       <c r="C57" s="63"/>
       <c r="D57" s="63"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="63"/>
       <c r="B58" s="63"/>
       <c r="C58" s="63"/>
       <c r="D58" s="63"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="63"/>
       <c r="B59" s="63"/>
       <c r="C59" s="63"/>
       <c r="D59" s="63"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="63"/>
       <c r="B60" s="63"/>
       <c r="C60" s="63"/>
       <c r="D60" s="63"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="63"/>
       <c r="B61" s="63"/>
       <c r="C61" s="63"/>
       <c r="D61" s="63"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" s="63"/>
       <c r="D62" s="63"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" s="63"/>
       <c r="D63" s="63"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C64" s="63"/>
       <c r="D64" s="63"/>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="63"/>
       <c r="D65" s="63"/>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="63"/>
       <c r="D66" s="63"/>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="63"/>
       <c r="D67" s="63"/>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="63"/>
       <c r="D68" s="63"/>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="63"/>
       <c r="D69" s="63"/>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="63"/>
       <c r="D70" s="63"/>
     </row>
-    <row r="71" spans="3:4">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" s="63"/>
       <c r="D71" s="63"/>
     </row>
-    <row r="72" spans="3:4">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="63"/>
       <c r="D72" s="63"/>
     </row>
-    <row r="73" spans="3:4">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" s="63"/>
       <c r="D73" s="63"/>
     </row>
-    <row r="74" spans="3:4">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" s="63"/>
       <c r="D74" s="63"/>
     </row>
-    <row r="75" spans="3:4">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" s="63"/>
       <c r="D75" s="63"/>
     </row>
-    <row r="76" spans="3:4">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" s="63"/>
       <c r="D76" s="63"/>
     </row>
-    <row r="77" spans="3:4">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" s="63"/>
       <c r="D77" s="63"/>
     </row>
-    <row r="78" spans="3:4">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" s="63"/>
       <c r="D78" s="63"/>
     </row>
-    <row r="79" spans="3:4">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" s="63"/>
       <c r="D79" s="63"/>
     </row>
-    <row r="80" spans="3:4">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" s="63"/>
       <c r="D80" s="63"/>
     </row>
-    <row r="81" spans="3:4">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" s="63"/>
       <c r="D81" s="63"/>
     </row>
-    <row r="82" spans="3:4">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" s="63"/>
       <c r="D82" s="63"/>
     </row>
-    <row r="83" spans="3:4">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" s="63"/>
       <c r="D83" s="63"/>
     </row>
-    <row r="84" spans="3:4">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" s="63"/>
       <c r="D84" s="63"/>
     </row>
-    <row r="85" spans="3:4">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" s="63"/>
       <c r="D85" s="63"/>
     </row>
-    <row r="86" spans="3:4">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" s="63"/>
       <c r="D86" s="63"/>
     </row>
-    <row r="87" spans="3:4">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" s="63"/>
       <c r="D87" s="63"/>
     </row>
-    <row r="88" spans="3:4">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" s="63"/>
       <c r="D88" s="63"/>
     </row>
-    <row r="89" spans="3:4">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" s="63"/>
       <c r="D89" s="63"/>
     </row>
-    <row r="90" spans="3:4">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" s="63"/>
       <c r="D90" s="63"/>
     </row>
-    <row r="91" spans="3:4">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" s="63"/>
       <c r="D91" s="63"/>
     </row>
-    <row r="92" spans="3:4">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" s="63"/>
       <c r="D92" s="63"/>
     </row>
-    <row r="93" spans="3:4">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" s="63"/>
       <c r="D93" s="63"/>
     </row>
-    <row r="94" spans="3:4">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" s="63"/>
       <c r="D94" s="63"/>
     </row>
-    <row r="95" spans="3:4">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" s="63"/>
       <c r="D95" s="63"/>
     </row>
-    <row r="96" spans="3:4">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" s="63"/>
       <c r="D96" s="63"/>
     </row>
-    <row r="97" spans="3:4">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="63"/>
       <c r="D97" s="63"/>
     </row>
-    <row r="98" spans="3:4">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" s="63"/>
       <c r="D98" s="63"/>
     </row>
-    <row r="99" spans="3:4">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" s="63"/>
       <c r="D99" s="63"/>
     </row>
-    <row r="100" spans="3:4">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="63"/>
       <c r="D100" s="63"/>
     </row>
-    <row r="101" spans="3:4">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="63"/>
       <c r="D101" s="63"/>
     </row>
-    <row r="102" spans="3:4">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" s="63"/>
       <c r="D102" s="63"/>
     </row>
-    <row r="103" spans="3:4">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" s="63"/>
       <c r="D103" s="63"/>
     </row>
-    <row r="104" spans="3:4">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" s="63"/>
       <c r="D104" s="63"/>
     </row>
-    <row r="105" spans="3:4">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" s="63"/>
       <c r="D105" s="63"/>
     </row>
-    <row r="106" spans="3:4">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" s="63"/>
       <c r="D106" s="63"/>
     </row>
-    <row r="107" spans="3:4">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107" s="63"/>
       <c r="D107" s="63"/>
     </row>
-    <row r="108" spans="3:4">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" s="63"/>
       <c r="D108" s="63"/>
     </row>
-    <row r="109" spans="3:4">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" s="63"/>
       <c r="D109" s="63"/>
     </row>
-    <row r="110" spans="3:4">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110" s="63"/>
       <c r="D110" s="63"/>
     </row>
-    <row r="111" spans="3:4">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" s="63"/>
       <c r="D111" s="63"/>
     </row>
-    <row r="112" spans="3:4">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112" s="63"/>
       <c r="D112" s="63"/>
     </row>
-    <row r="113" spans="3:4">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" s="63"/>
       <c r="D113" s="63"/>
     </row>
-    <row r="114" spans="3:4">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" s="63"/>
       <c r="D114" s="63"/>
     </row>
-    <row r="115" spans="3:4">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" s="63"/>
       <c r="D115" s="63"/>
     </row>
-    <row r="116" spans="3:4">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" s="63"/>
       <c r="D116" s="63"/>
     </row>
-    <row r="117" spans="3:4">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" s="63"/>
       <c r="D117" s="63"/>
     </row>
-    <row r="118" spans="3:4">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" s="63"/>
       <c r="D118" s="63"/>
     </row>
-    <row r="119" spans="3:4">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119" s="63"/>
       <c r="D119" s="63"/>
     </row>
-    <row r="120" spans="3:4">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120" s="63"/>
       <c r="D120" s="63"/>
     </row>
-    <row r="121" spans="3:4">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121" s="63"/>
       <c r="D121" s="63"/>
     </row>
-    <row r="122" spans="3:4">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122" s="63"/>
       <c r="D122" s="63"/>
     </row>
-    <row r="123" spans="3:4">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" s="63"/>
       <c r="D123" s="63"/>
     </row>
-    <row r="124" spans="3:4">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124" s="63"/>
       <c r="D124" s="63"/>
     </row>
-    <row r="125" spans="3:4">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125" s="63"/>
       <c r="D125" s="63"/>
     </row>
-    <row r="126" spans="3:4">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126" s="63"/>
       <c r="D126" s="63"/>
     </row>
-    <row r="127" spans="3:4">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127" s="63"/>
       <c r="D127" s="63"/>
     </row>
-    <row r="128" spans="3:4">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128" s="63"/>
       <c r="D128" s="63"/>
     </row>
-    <row r="129" spans="3:4">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" s="63"/>
       <c r="D129" s="63"/>
     </row>
-    <row r="130" spans="3:4">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" s="63"/>
       <c r="D130" s="63"/>
     </row>
-    <row r="131" spans="3:4">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" s="63"/>
       <c r="D131" s="63"/>
     </row>
-    <row r="132" spans="3:4">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" s="63"/>
       <c r="D132" s="63"/>
     </row>
-    <row r="133" spans="3:4">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133" s="63"/>
       <c r="D133" s="63"/>
     </row>
-    <row r="134" spans="3:4">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" s="63"/>
       <c r="D134" s="63"/>
     </row>
-    <row r="135" spans="3:4">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135" s="63"/>
       <c r="D135" s="63"/>
     </row>
-    <row r="136" spans="3:4">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136" s="63"/>
       <c r="D136" s="63"/>
     </row>
-    <row r="137" spans="3:4">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137" s="63"/>
       <c r="D137" s="63"/>
     </row>
-    <row r="138" spans="3:4">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138" s="63"/>
       <c r="D138" s="63"/>
     </row>
-    <row r="139" spans="3:4">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139" s="63"/>
       <c r="D139" s="63"/>
     </row>
-    <row r="140" spans="3:4">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140" s="63"/>
       <c r="D140" s="63"/>
     </row>
-    <row r="141" spans="3:4">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141" s="63"/>
       <c r="D141" s="63"/>
     </row>
-    <row r="142" spans="3:4">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142" s="63"/>
       <c r="D142" s="63"/>
     </row>
-    <row r="143" spans="3:4">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143" s="63"/>
       <c r="D143" s="63"/>
     </row>
-    <row r="144" spans="3:4">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144" s="63"/>
       <c r="D144" s="63"/>
     </row>
-    <row r="145" spans="3:4">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" s="63"/>
       <c r="D145" s="63"/>
     </row>
-    <row r="146" spans="3:4">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" s="63"/>
       <c r="D146" s="63"/>
     </row>
-    <row r="147" spans="3:4">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" s="63"/>
       <c r="D147" s="63"/>
     </row>
-    <row r="148" spans="3:4">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" s="63"/>
       <c r="D148" s="63"/>
     </row>
-    <row r="149" spans="3:4">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" s="63"/>
       <c r="D149" s="63"/>
     </row>
-    <row r="150" spans="3:4">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" s="63"/>
       <c r="D150" s="63"/>
     </row>
-    <row r="151" spans="3:4">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" s="63"/>
       <c r="D151" s="63"/>
     </row>
-    <row r="152" spans="3:4">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152" s="63"/>
       <c r="D152" s="63"/>
     </row>
-    <row r="153" spans="3:4">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153" s="63"/>
       <c r="D153" s="63"/>
     </row>
-    <row r="154" spans="3:4">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" s="63"/>
       <c r="D154" s="63"/>
     </row>
-    <row r="155" spans="3:4">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" s="63"/>
       <c r="D155" s="63"/>
     </row>
-    <row r="156" spans="3:4">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" s="63"/>
       <c r="D156" s="63"/>
     </row>
-    <row r="157" spans="3:4">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157" s="63"/>
       <c r="D157" s="63"/>
     </row>
-    <row r="158" spans="3:4">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" s="63"/>
       <c r="D158" s="63"/>
     </row>
-    <row r="159" spans="3:4">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159" s="63"/>
       <c r="D159" s="63"/>
     </row>
-    <row r="160" spans="3:4">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C160" s="63"/>
       <c r="D160" s="63"/>
     </row>
-    <row r="161" spans="3:4">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C161" s="63"/>
       <c r="D161" s="63"/>
     </row>
-    <row r="162" spans="3:4">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162" s="63"/>
       <c r="D162" s="63"/>
     </row>
-    <row r="163" spans="3:4">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163" s="63"/>
       <c r="D163" s="63"/>
     </row>
-    <row r="164" spans="3:4">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164" s="63"/>
       <c r="D164" s="63"/>
     </row>
-    <row r="165" spans="3:4">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C165" s="63"/>
       <c r="D165" s="63"/>
     </row>
-    <row r="166" spans="3:4">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C166" s="63"/>
       <c r="D166" s="63"/>
     </row>
-    <row r="167" spans="3:4">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C167" s="63"/>
       <c r="D167" s="63"/>
     </row>
@@ -10351,14 +10360,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -10366,15 +10375,15 @@
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" customHeight="1">
-      <c r="B1" s="314" t="s">
+    <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="313" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="315"/>
-      <c r="D1" s="315"/>
-      <c r="E1" s="316"/>
-    </row>
-    <row r="2" spans="2:8" ht="15" customHeight="1">
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="315"/>
+    </row>
+    <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="150" t="s">
         <v>89</v>
       </c>
@@ -10388,7 +10397,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1">
+    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="151" t="s">
         <v>90</v>
       </c>
@@ -10403,7 +10412,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1">
+    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="151" t="s">
         <v>91</v>
       </c>
@@ -10418,7 +10427,7 @@
         <v>-2029</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1">
+    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="151" t="s">
         <v>92</v>
       </c>
@@ -10433,7 +10442,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1">
+    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="151" t="s">
         <v>93</v>
       </c>
@@ -10448,7 +10457,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15" customHeight="1">
+    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="151" t="s">
         <v>94</v>
       </c>
@@ -10463,7 +10472,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1">
+    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="151" t="s">
         <v>95</v>
       </c>
@@ -10478,7 +10487,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15" customHeight="1">
+    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="151" t="s">
         <v>96</v>
       </c>
@@ -10494,7 +10503,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1">
+    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="151" t="s">
         <v>97</v>
       </c>
@@ -10509,7 +10518,7 @@
         <v>4671</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15" customHeight="1">
+    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="151" t="s">
         <v>98</v>
       </c>
@@ -10524,7 +10533,7 @@
         <v>-7690</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1">
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="151" t="s">
         <v>99</v>
       </c>
@@ -10539,7 +10548,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15" customHeight="1">
+    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="151" t="s">
         <v>100</v>
       </c>
@@ -10554,7 +10563,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1">
+    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="151" t="s">
         <v>101</v>
       </c>
@@ -10569,7 +10578,7 @@
         <v>-5027</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15" customHeight="1">
+    <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="151" t="s">
         <v>102</v>
       </c>
@@ -10584,7 +10593,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15" customHeight="1">
+    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="151" t="s">
         <v>103</v>
       </c>
@@ -10599,7 +10608,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15" customHeight="1">
+    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="151" t="s">
         <v>104</v>
       </c>
@@ -10614,7 +10623,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15" customHeight="1">
+    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="151" t="s">
         <v>105</v>
       </c>
@@ -10629,7 +10638,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="15" customHeight="1">
+    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="151" t="s">
         <v>106</v>
       </c>
@@ -10644,7 +10653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15" customHeight="1">
+    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="151" t="s">
         <v>107</v>
       </c>
@@ -10659,7 +10668,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="15" customHeight="1">
+    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="151" t="s">
         <v>108</v>
       </c>
@@ -10674,7 +10683,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="15" customHeight="1">
+    <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="151" t="s">
         <v>109</v>
       </c>
@@ -10689,7 +10698,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="15" customHeight="1">
+    <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="151" t="s">
         <v>110</v>
       </c>
@@ -10704,7 +10713,7 @@
         <v>-3262</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="15" customHeight="1">
+    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="155" t="s">
         <v>35</v>
       </c>
@@ -10738,7 +10747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10746,7 +10755,7 @@
       <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="119" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="119" customWidth="1"/>
@@ -10766,114 +10775,114 @@
     <col min="18" max="16384" width="9.140625" style="119"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" customHeight="1">
-      <c r="A1" s="308" t="s">
+    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="307" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="308"/>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
-      <c r="F1" s="308"/>
-      <c r="G1" s="308"/>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="J1" s="308"/>
-      <c r="K1" s="308"/>
-      <c r="L1" s="308"/>
-      <c r="M1" s="308"/>
-      <c r="N1" s="308"/>
-      <c r="O1" s="308"/>
-      <c r="P1" s="308"/>
-      <c r="Q1" s="308"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="308"/>
-      <c r="B2" s="308"/>
-      <c r="C2" s="308"/>
-      <c r="D2" s="308"/>
-      <c r="E2" s="308"/>
-      <c r="F2" s="308"/>
-      <c r="G2" s="308"/>
-      <c r="H2" s="308"/>
-      <c r="I2" s="308"/>
-      <c r="J2" s="308"/>
-      <c r="K2" s="308"/>
-      <c r="L2" s="308"/>
-      <c r="M2" s="308"/>
-      <c r="N2" s="308"/>
-      <c r="O2" s="308"/>
-      <c r="P2" s="308"/>
-      <c r="Q2" s="308"/>
-    </row>
-    <row r="3" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="309" t="s">
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="307"/>
+      <c r="M1" s="307"/>
+      <c r="N1" s="307"/>
+      <c r="O1" s="307"/>
+      <c r="P1" s="307"/>
+      <c r="Q1" s="307"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="307"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
+      <c r="F2" s="307"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="307"/>
+      <c r="J2" s="307"/>
+      <c r="K2" s="307"/>
+      <c r="L2" s="307"/>
+      <c r="M2" s="307"/>
+      <c r="N2" s="307"/>
+      <c r="O2" s="307"/>
+      <c r="P2" s="307"/>
+      <c r="Q2" s="307"/>
+    </row>
+    <row r="3" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="308" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="309"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="309"/>
-      <c r="E3" s="309"/>
-      <c r="F3" s="309"/>
-      <c r="G3" s="309"/>
-      <c r="H3" s="309"/>
-      <c r="I3" s="309"/>
-      <c r="J3" s="309"/>
-      <c r="K3" s="309"/>
-      <c r="L3" s="309"/>
-      <c r="M3" s="309"/>
-      <c r="N3" s="309"/>
-      <c r="O3" s="309"/>
-      <c r="P3" s="309"/>
-      <c r="Q3" s="309"/>
-    </row>
-    <row r="4" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="310" t="s">
+      <c r="B3" s="308"/>
+      <c r="C3" s="308"/>
+      <c r="D3" s="308"/>
+      <c r="E3" s="308"/>
+      <c r="F3" s="308"/>
+      <c r="G3" s="308"/>
+      <c r="H3" s="308"/>
+      <c r="I3" s="308"/>
+      <c r="J3" s="308"/>
+      <c r="K3" s="308"/>
+      <c r="L3" s="308"/>
+      <c r="M3" s="308"/>
+      <c r="N3" s="308"/>
+      <c r="O3" s="308"/>
+      <c r="P3" s="308"/>
+      <c r="Q3" s="308"/>
+    </row>
+    <row r="4" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="309" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="310"/>
-      <c r="C4" s="310"/>
-      <c r="D4" s="310"/>
-      <c r="E4" s="310"/>
-      <c r="F4" s="310"/>
-      <c r="G4" s="310"/>
-      <c r="H4" s="310"/>
-      <c r="I4" s="310"/>
-      <c r="J4" s="310"/>
-      <c r="K4" s="310"/>
-      <c r="L4" s="310"/>
-      <c r="M4" s="310"/>
-      <c r="N4" s="310"/>
-      <c r="O4" s="310"/>
-      <c r="P4" s="310"/>
-      <c r="Q4" s="310"/>
-    </row>
-    <row r="5" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="317" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="318"/>
+      <c r="B4" s="309"/>
+      <c r="C4" s="309"/>
+      <c r="D4" s="309"/>
+      <c r="E4" s="309"/>
+      <c r="F4" s="309"/>
+      <c r="G4" s="309"/>
+      <c r="H4" s="309"/>
+      <c r="I4" s="309"/>
+      <c r="J4" s="309"/>
+      <c r="K4" s="309"/>
+      <c r="L4" s="309"/>
+      <c r="M4" s="309"/>
+      <c r="N4" s="309"/>
+      <c r="O4" s="309"/>
+      <c r="P4" s="309"/>
+      <c r="Q4" s="309"/>
+    </row>
+    <row r="5" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="316" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="317"/>
       <c r="C5" s="184"/>
       <c r="D5" s="185" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="185"/>
-      <c r="F5" s="313" t="s">
+      <c r="F5" s="312" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="313"/>
-      <c r="H5" s="313"/>
-      <c r="I5" s="313"/>
-      <c r="J5" s="313"/>
-      <c r="K5" s="313"/>
-      <c r="L5" s="313"/>
-      <c r="M5" s="313"/>
-      <c r="N5" s="313"/>
-      <c r="O5" s="313"/>
-      <c r="P5" s="313"/>
-      <c r="Q5" s="312"/>
-    </row>
-    <row r="6" spans="1:19" s="120" customFormat="1" ht="18" customHeight="1">
+      <c r="G5" s="312"/>
+      <c r="H5" s="312"/>
+      <c r="I5" s="312"/>
+      <c r="J5" s="312"/>
+      <c r="K5" s="312"/>
+      <c r="L5" s="312"/>
+      <c r="M5" s="312"/>
+      <c r="N5" s="312"/>
+      <c r="O5" s="312"/>
+      <c r="P5" s="312"/>
+      <c r="Q5" s="311"/>
+    </row>
+    <row r="6" spans="1:19" s="120" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="141" t="s">
         <v>80</v>
       </c>
@@ -10926,7 +10935,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="18" customHeight="1">
+    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="121">
         <v>1</v>
       </c>
@@ -10960,10 +10969,10 @@
         <v>-2311</v>
       </c>
       <c r="S7" s="119" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="18" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="121">
         <v>2</v>
       </c>
@@ -10994,7 +11003,7 @@
       </c>
       <c r="Q8" s="167"/>
     </row>
-    <row r="9" spans="1:19" ht="18" customHeight="1">
+    <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="144">
         <v>3</v>
       </c>
@@ -11026,7 +11035,7 @@
       <c r="Q9" s="167"/>
       <c r="R9" s="130"/>
     </row>
-    <row r="10" spans="1:19" ht="18" customHeight="1">
+    <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="191">
         <v>4</v>
       </c>
@@ -11051,7 +11060,7 @@
       <c r="P10" s="190"/>
       <c r="Q10" s="193"/>
     </row>
-    <row r="11" spans="1:19" ht="18" customHeight="1">
+    <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="144">
         <v>5</v>
       </c>
@@ -11076,7 +11085,7 @@
       <c r="P11" s="190"/>
       <c r="Q11" s="193"/>
     </row>
-    <row r="12" spans="1:19" ht="18" customHeight="1">
+    <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="194">
         <v>6</v>
       </c>
@@ -11103,7 +11112,7 @@
       <c r="P12" s="190"/>
       <c r="Q12" s="193"/>
     </row>
-    <row r="13" spans="1:19" ht="18" customHeight="1">
+    <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="144">
         <v>7</v>
       </c>
@@ -11128,7 +11137,7 @@
       <c r="P13" s="190"/>
       <c r="Q13" s="193"/>
     </row>
-    <row r="14" spans="1:19" ht="18" customHeight="1">
+    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="194">
         <v>8</v>
       </c>
@@ -11167,7 +11176,7 @@
       </c>
       <c r="Q14" s="193"/>
     </row>
-    <row r="15" spans="1:19" ht="18" customHeight="1">
+    <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="144">
         <v>9</v>
       </c>
@@ -11196,7 +11205,7 @@
       </c>
       <c r="Q15" s="193"/>
     </row>
-    <row r="16" spans="1:19" ht="18" customHeight="1">
+    <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="194">
         <v>10</v>
       </c>
@@ -11223,7 +11232,7 @@
       <c r="P16" s="190"/>
       <c r="Q16" s="193"/>
     </row>
-    <row r="17" spans="1:17" ht="18.75">
+    <row r="17" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="144">
         <v>11</v>
       </c>
@@ -11262,7 +11271,7 @@
       </c>
       <c r="Q17" s="193"/>
     </row>
-    <row r="18" spans="1:17" ht="18" customHeight="1">
+    <row r="18" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="121">
         <v>12</v>
       </c>
@@ -11289,7 +11298,7 @@
       <c r="P18" s="190"/>
       <c r="Q18" s="193"/>
     </row>
-    <row r="19" spans="1:17" ht="18" customHeight="1">
+    <row r="19" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="195">
         <v>13</v>
       </c>
@@ -11310,7 +11319,7 @@
       <c r="P19" s="190"/>
       <c r="Q19" s="193"/>
     </row>
-    <row r="20" spans="1:17" ht="18" customHeight="1">
+    <row r="20" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="196">
         <v>14</v>
       </c>
@@ -11331,7 +11340,7 @@
       <c r="P20" s="190"/>
       <c r="Q20" s="193"/>
     </row>
-    <row r="21" spans="1:17" ht="18" customHeight="1">
+    <row r="21" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="195">
         <v>15</v>
       </c>
@@ -11352,7 +11361,7 @@
       <c r="P21" s="190"/>
       <c r="Q21" s="193"/>
     </row>
-    <row r="22" spans="1:17" ht="18" customHeight="1">
+    <row r="22" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="195">
         <v>17</v>
       </c>
@@ -11377,7 +11386,7 @@
       <c r="P22" s="190"/>
       <c r="Q22" s="193"/>
     </row>
-    <row r="23" spans="1:17" ht="18" customHeight="1">
+    <row r="23" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="196">
         <v>18</v>
       </c>
@@ -11398,7 +11407,7 @@
       <c r="P23" s="190"/>
       <c r="Q23" s="193"/>
     </row>
-    <row r="24" spans="1:17" ht="18" customHeight="1">
+    <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="195">
         <v>19</v>
       </c>
@@ -11419,7 +11428,7 @@
       <c r="P24" s="190"/>
       <c r="Q24" s="193"/>
     </row>
-    <row r="25" spans="1:17" ht="18" customHeight="1">
+    <row r="25" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="197">
         <v>20</v>
       </c>
@@ -11440,7 +11449,7 @@
       <c r="P25" s="190"/>
       <c r="Q25" s="193"/>
     </row>
-    <row r="26" spans="1:17" ht="18" customHeight="1">
+    <row r="26" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="197">
         <v>21</v>
       </c>
@@ -11461,7 +11470,7 @@
       <c r="P26" s="190"/>
       <c r="Q26" s="193"/>
     </row>
-    <row r="27" spans="1:17" ht="18" customHeight="1" thickBot="1">
+    <row r="27" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="197">
         <v>22</v>
       </c>
@@ -11482,12 +11491,12 @@
       <c r="P27" s="190"/>
       <c r="Q27" s="193"/>
     </row>
-    <row r="28" spans="1:17" s="129" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="305" t="s">
+    <row r="28" spans="1:17" s="129" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="304" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="306"/>
-      <c r="C28" s="307"/>
+      <c r="B28" s="305"/>
+      <c r="C28" s="306"/>
       <c r="D28" s="148">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -11542,7 +11551,7 @@
       </c>
       <c r="Q28" s="149"/>
     </row>
-    <row r="29" spans="1:17" ht="15.75">
+    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="63"/>
       <c r="B29" s="63"/>
       <c r="C29" s="63"/>
@@ -11552,7 +11561,7 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
     </row>
-    <row r="30" spans="1:17" ht="15.75">
+    <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="63"/>
       <c r="B30" s="63"/>
       <c r="C30" s="54"/>
@@ -11564,7 +11573,7 @@
       <c r="J30" s="63"/>
       <c r="K30" s="63"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="63"/>
       <c r="B31" s="63"/>
       <c r="C31" s="54"/>
@@ -11573,7 +11582,7 @@
       <c r="G31" s="63"/>
       <c r="I31" s="63"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
       <c r="B32" s="63"/>
       <c r="C32" s="54"/>
@@ -11582,7 +11591,7 @@
       <c r="G32" s="63"/>
       <c r="I32" s="63"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
       <c r="B33" s="63"/>
       <c r="C33" s="54"/>
@@ -11591,7 +11600,7 @@
       <c r="G33" s="63"/>
       <c r="I33" s="63"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
       <c r="B34" s="63"/>
       <c r="C34" s="54"/>
@@ -11600,589 +11609,589 @@
       <c r="G34" s="63"/>
       <c r="I34" s="63"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
       <c r="B35" s="63"/>
       <c r="C35" s="54"/>
       <c r="D35" s="54"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="131"/>
       <c r="B36" s="131"/>
       <c r="C36" s="54"/>
       <c r="D36" s="54"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="63"/>
       <c r="B37" s="63"/>
       <c r="C37" s="54"/>
       <c r="D37" s="54"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="63"/>
       <c r="B38" s="63"/>
       <c r="C38" s="54"/>
       <c r="D38" s="54"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="63"/>
       <c r="B39" s="63"/>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="63"/>
       <c r="B40" s="63"/>
       <c r="C40" s="54"/>
       <c r="D40" s="54"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="63"/>
       <c r="B41" s="63"/>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="63"/>
       <c r="B42" s="63"/>
       <c r="C42" s="63"/>
       <c r="D42" s="63"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="63"/>
       <c r="B43" s="63"/>
       <c r="C43" s="63"/>
       <c r="D43" s="63"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
       <c r="B44" s="63"/>
       <c r="C44" s="63"/>
       <c r="D44" s="63"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="63"/>
       <c r="B45" s="63"/>
       <c r="C45" s="63"/>
       <c r="D45" s="63"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="63"/>
       <c r="B46" s="63"/>
       <c r="C46" s="63"/>
       <c r="D46" s="63"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="63"/>
       <c r="B47" s="63"/>
       <c r="C47" s="63"/>
       <c r="D47" s="63"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="63"/>
       <c r="B48" s="63"/>
       <c r="C48" s="63"/>
       <c r="D48" s="63"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="63"/>
       <c r="B49" s="63"/>
       <c r="C49" s="63"/>
       <c r="D49" s="63"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="63"/>
       <c r="B50" s="63"/>
       <c r="C50" s="63"/>
       <c r="D50" s="63"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="63"/>
       <c r="B51" s="63"/>
       <c r="C51" s="63"/>
       <c r="D51" s="63"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="63"/>
       <c r="B52" s="63"/>
       <c r="C52" s="63"/>
       <c r="D52" s="63"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="63"/>
       <c r="B53" s="63"/>
       <c r="C53" s="63"/>
       <c r="D53" s="63"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="63"/>
       <c r="B54" s="63"/>
       <c r="C54" s="63"/>
       <c r="D54" s="63"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="63"/>
       <c r="B55" s="63"/>
       <c r="C55" s="63"/>
       <c r="D55" s="63"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="63"/>
       <c r="B56" s="63"/>
       <c r="C56" s="63"/>
       <c r="D56" s="63"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="63"/>
       <c r="B57" s="63"/>
       <c r="C57" s="63"/>
       <c r="D57" s="63"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="63"/>
       <c r="B58" s="63"/>
       <c r="C58" s="63"/>
       <c r="D58" s="63"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="63"/>
       <c r="B59" s="63"/>
       <c r="C59" s="63"/>
       <c r="D59" s="63"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="63"/>
       <c r="B60" s="63"/>
       <c r="C60" s="63"/>
       <c r="D60" s="63"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="63"/>
       <c r="B61" s="63"/>
       <c r="C61" s="63"/>
       <c r="D61" s="63"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" s="63"/>
       <c r="D62" s="63"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" s="63"/>
       <c r="D63" s="63"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C64" s="63"/>
       <c r="D64" s="63"/>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="63"/>
       <c r="D65" s="63"/>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="63"/>
       <c r="D66" s="63"/>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="63"/>
       <c r="D67" s="63"/>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="63"/>
       <c r="D68" s="63"/>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="63"/>
       <c r="D69" s="63"/>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="63"/>
       <c r="D70" s="63"/>
     </row>
-    <row r="71" spans="3:4">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" s="63"/>
       <c r="D71" s="63"/>
     </row>
-    <row r="72" spans="3:4">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="63"/>
       <c r="D72" s="63"/>
     </row>
-    <row r="73" spans="3:4">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" s="63"/>
       <c r="D73" s="63"/>
     </row>
-    <row r="74" spans="3:4">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" s="63"/>
       <c r="D74" s="63"/>
     </row>
-    <row r="75" spans="3:4">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" s="63"/>
       <c r="D75" s="63"/>
     </row>
-    <row r="76" spans="3:4">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" s="63"/>
       <c r="D76" s="63"/>
     </row>
-    <row r="77" spans="3:4">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" s="63"/>
       <c r="D77" s="63"/>
     </row>
-    <row r="78" spans="3:4">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" s="63"/>
       <c r="D78" s="63"/>
     </row>
-    <row r="79" spans="3:4">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" s="63"/>
       <c r="D79" s="63"/>
     </row>
-    <row r="80" spans="3:4">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" s="63"/>
       <c r="D80" s="63"/>
     </row>
-    <row r="81" spans="3:4">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" s="63"/>
       <c r="D81" s="63"/>
     </row>
-    <row r="82" spans="3:4">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" s="63"/>
       <c r="D82" s="63"/>
     </row>
-    <row r="83" spans="3:4">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" s="63"/>
       <c r="D83" s="63"/>
     </row>
-    <row r="84" spans="3:4">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" s="63"/>
       <c r="D84" s="63"/>
     </row>
-    <row r="85" spans="3:4">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" s="63"/>
       <c r="D85" s="63"/>
     </row>
-    <row r="86" spans="3:4">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" s="63"/>
       <c r="D86" s="63"/>
     </row>
-    <row r="87" spans="3:4">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" s="63"/>
       <c r="D87" s="63"/>
     </row>
-    <row r="88" spans="3:4">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" s="63"/>
       <c r="D88" s="63"/>
     </row>
-    <row r="89" spans="3:4">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" s="63"/>
       <c r="D89" s="63"/>
     </row>
-    <row r="90" spans="3:4">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" s="63"/>
       <c r="D90" s="63"/>
     </row>
-    <row r="91" spans="3:4">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" s="63"/>
       <c r="D91" s="63"/>
     </row>
-    <row r="92" spans="3:4">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" s="63"/>
       <c r="D92" s="63"/>
     </row>
-    <row r="93" spans="3:4">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" s="63"/>
       <c r="D93" s="63"/>
     </row>
-    <row r="94" spans="3:4">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" s="63"/>
       <c r="D94" s="63"/>
     </row>
-    <row r="95" spans="3:4">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" s="63"/>
       <c r="D95" s="63"/>
     </row>
-    <row r="96" spans="3:4">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" s="63"/>
       <c r="D96" s="63"/>
     </row>
-    <row r="97" spans="3:4">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="63"/>
       <c r="D97" s="63"/>
     </row>
-    <row r="98" spans="3:4">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" s="63"/>
       <c r="D98" s="63"/>
     </row>
-    <row r="99" spans="3:4">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" s="63"/>
       <c r="D99" s="63"/>
     </row>
-    <row r="100" spans="3:4">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="63"/>
       <c r="D100" s="63"/>
     </row>
-    <row r="101" spans="3:4">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="63"/>
       <c r="D101" s="63"/>
     </row>
-    <row r="102" spans="3:4">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" s="63"/>
       <c r="D102" s="63"/>
     </row>
-    <row r="103" spans="3:4">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" s="63"/>
       <c r="D103" s="63"/>
     </row>
-    <row r="104" spans="3:4">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" s="63"/>
       <c r="D104" s="63"/>
     </row>
-    <row r="105" spans="3:4">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" s="63"/>
       <c r="D105" s="63"/>
     </row>
-    <row r="106" spans="3:4">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" s="63"/>
       <c r="D106" s="63"/>
     </row>
-    <row r="107" spans="3:4">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107" s="63"/>
       <c r="D107" s="63"/>
     </row>
-    <row r="108" spans="3:4">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" s="63"/>
       <c r="D108" s="63"/>
     </row>
-    <row r="109" spans="3:4">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" s="63"/>
       <c r="D109" s="63"/>
     </row>
-    <row r="110" spans="3:4">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110" s="63"/>
       <c r="D110" s="63"/>
     </row>
-    <row r="111" spans="3:4">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" s="63"/>
       <c r="D111" s="63"/>
     </row>
-    <row r="112" spans="3:4">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112" s="63"/>
       <c r="D112" s="63"/>
     </row>
-    <row r="113" spans="3:4">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" s="63"/>
       <c r="D113" s="63"/>
     </row>
-    <row r="114" spans="3:4">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" s="63"/>
       <c r="D114" s="63"/>
     </row>
-    <row r="115" spans="3:4">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" s="63"/>
       <c r="D115" s="63"/>
     </row>
-    <row r="116" spans="3:4">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" s="63"/>
       <c r="D116" s="63"/>
     </row>
-    <row r="117" spans="3:4">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" s="63"/>
       <c r="D117" s="63"/>
     </row>
-    <row r="118" spans="3:4">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" s="63"/>
       <c r="D118" s="63"/>
     </row>
-    <row r="119" spans="3:4">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119" s="63"/>
       <c r="D119" s="63"/>
     </row>
-    <row r="120" spans="3:4">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120" s="63"/>
       <c r="D120" s="63"/>
     </row>
-    <row r="121" spans="3:4">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121" s="63"/>
       <c r="D121" s="63"/>
     </row>
-    <row r="122" spans="3:4">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122" s="63"/>
       <c r="D122" s="63"/>
     </row>
-    <row r="123" spans="3:4">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" s="63"/>
       <c r="D123" s="63"/>
     </row>
-    <row r="124" spans="3:4">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124" s="63"/>
       <c r="D124" s="63"/>
     </row>
-    <row r="125" spans="3:4">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125" s="63"/>
       <c r="D125" s="63"/>
     </row>
-    <row r="126" spans="3:4">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126" s="63"/>
       <c r="D126" s="63"/>
     </row>
-    <row r="127" spans="3:4">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127" s="63"/>
       <c r="D127" s="63"/>
     </row>
-    <row r="128" spans="3:4">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128" s="63"/>
       <c r="D128" s="63"/>
     </row>
-    <row r="129" spans="3:4">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" s="63"/>
       <c r="D129" s="63"/>
     </row>
-    <row r="130" spans="3:4">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" s="63"/>
       <c r="D130" s="63"/>
     </row>
-    <row r="131" spans="3:4">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" s="63"/>
       <c r="D131" s="63"/>
     </row>
-    <row r="132" spans="3:4">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" s="63"/>
       <c r="D132" s="63"/>
     </row>
-    <row r="133" spans="3:4">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133" s="63"/>
       <c r="D133" s="63"/>
     </row>
-    <row r="134" spans="3:4">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" s="63"/>
       <c r="D134" s="63"/>
     </row>
-    <row r="135" spans="3:4">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135" s="63"/>
       <c r="D135" s="63"/>
     </row>
-    <row r="136" spans="3:4">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136" s="63"/>
       <c r="D136" s="63"/>
     </row>
-    <row r="137" spans="3:4">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137" s="63"/>
       <c r="D137" s="63"/>
     </row>
-    <row r="138" spans="3:4">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138" s="63"/>
       <c r="D138" s="63"/>
     </row>
-    <row r="139" spans="3:4">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139" s="63"/>
       <c r="D139" s="63"/>
     </row>
-    <row r="140" spans="3:4">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140" s="63"/>
       <c r="D140" s="63"/>
     </row>
-    <row r="141" spans="3:4">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141" s="63"/>
       <c r="D141" s="63"/>
     </row>
-    <row r="142" spans="3:4">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142" s="63"/>
       <c r="D142" s="63"/>
     </row>
-    <row r="143" spans="3:4">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143" s="63"/>
       <c r="D143" s="63"/>
     </row>
-    <row r="144" spans="3:4">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144" s="63"/>
       <c r="D144" s="63"/>
     </row>
-    <row r="145" spans="3:4">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" s="63"/>
       <c r="D145" s="63"/>
     </row>
-    <row r="146" spans="3:4">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" s="63"/>
       <c r="D146" s="63"/>
     </row>
-    <row r="147" spans="3:4">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" s="63"/>
       <c r="D147" s="63"/>
     </row>
-    <row r="148" spans="3:4">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" s="63"/>
       <c r="D148" s="63"/>
     </row>
-    <row r="149" spans="3:4">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" s="63"/>
       <c r="D149" s="63"/>
     </row>
-    <row r="150" spans="3:4">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" s="63"/>
       <c r="D150" s="63"/>
     </row>
-    <row r="151" spans="3:4">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" s="63"/>
       <c r="D151" s="63"/>
     </row>
-    <row r="152" spans="3:4">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152" s="63"/>
       <c r="D152" s="63"/>
     </row>
-    <row r="153" spans="3:4">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153" s="63"/>
       <c r="D153" s="63"/>
     </row>
-    <row r="154" spans="3:4">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" s="63"/>
       <c r="D154" s="63"/>
     </row>
-    <row r="155" spans="3:4">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" s="63"/>
       <c r="D155" s="63"/>
     </row>
-    <row r="156" spans="3:4">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" s="63"/>
       <c r="D156" s="63"/>
     </row>
-    <row r="157" spans="3:4">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157" s="63"/>
       <c r="D157" s="63"/>
     </row>
-    <row r="158" spans="3:4">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" s="63"/>
       <c r="D158" s="63"/>
     </row>
-    <row r="159" spans="3:4">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159" s="63"/>
       <c r="D159" s="63"/>
     </row>
-    <row r="160" spans="3:4">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C160" s="63"/>
       <c r="D160" s="63"/>
     </row>
-    <row r="161" spans="3:4">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C161" s="63"/>
       <c r="D161" s="63"/>
     </row>
-    <row r="162" spans="3:4">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162" s="63"/>
       <c r="D162" s="63"/>
     </row>
-    <row r="163" spans="3:4">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163" s="63"/>
       <c r="D163" s="63"/>
     </row>
-    <row r="164" spans="3:4">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164" s="63"/>
       <c r="D164" s="63"/>
     </row>
-    <row r="165" spans="3:4">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C165" s="63"/>
       <c r="D165" s="63"/>
     </row>
-    <row r="166" spans="3:4">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C166" s="63"/>
       <c r="D166" s="63"/>
     </row>
-    <row r="167" spans="3:4">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C167" s="63"/>
       <c r="D167" s="63"/>
     </row>
@@ -12205,207 +12214,207 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="230"/>
+    <col min="1" max="1" width="12" style="230" customWidth="1"/>
     <col min="2" max="2" width="26" style="230" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="230" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="230" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="230"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="319" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="319"/>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" s="231" t="s">
+    <row r="1" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="318" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="318"/>
+    </row>
+    <row r="2" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="319" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="231" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="231" t="s">
+      <c r="C2" s="319" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="319" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="231">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="231" t="s">
+      <c r="C3" s="319">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="319" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="231">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="231" t="s">
+      <c r="C4" s="319">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="319" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="231">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="231" t="s">
+      <c r="C5" s="319">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="319" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="231">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="231" t="s">
+      <c r="C6" s="319">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="319" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="231">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="231" t="s">
+      <c r="C7" s="319">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="319" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="231">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="231" t="s">
+      <c r="C8" s="319">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="319" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="231">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="231" t="s">
+      <c r="C9" s="319">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="319" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="231">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="231" t="s">
+      <c r="C10" s="319">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="319" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="231">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="231" t="s">
+      <c r="C11" s="319">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="319" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="231">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="231" t="s">
+      <c r="C12" s="319">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="319" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="231">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="231" t="s">
+      <c r="C13" s="319">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="319" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="231">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="231" t="s">
+      <c r="C14" s="319">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="319" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="231">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="231" t="s">
+      <c r="C15" s="319">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="319" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="231">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="231" t="s">
+      <c r="C16" s="319">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="319" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="231">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="231" t="s">
+      <c r="C17" s="319">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="319" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="231">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="231" t="s">
+      <c r="C18" s="319">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="319" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="231">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="231" t="s">
+      <c r="C19" s="319">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="319" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="231">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="231" t="s">
+      <c r="C20" s="319">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="319" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="231">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="231" t="s">
+      <c r="C21" s="319">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="319" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="231">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="231" t="s">
+      <c r="C22" s="319">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="319" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="231">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
+      <c r="C23" s="319">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C24" s="230">
         <f>SUM(C3:C23)</f>
-        <v>269000</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -12413,6 +12422,18 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>